--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/evo_SB.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/evo_SB.xlsx
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_conceded_pg</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -503,19 +503,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01841807932483582</v>
+        <v>0.0001496945176550234</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08066632457957293</v>
+        <v>8.339398868230323e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1352750901429573</v>
+        <v>0.0002024814893852967</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1284559023603747</v>
+        <v>0.000500002169393737</v>
       </c>
       <c r="G2" t="n">
-        <v>-797.4400000000001</v>
+        <v>234.02</v>
       </c>
     </row>
     <row r="3">
@@ -526,25 +526,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04960009958125229</v>
+        <v>0.000397658757161297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04107616597335236</v>
+        <v>0.0001962899957342735</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0732617178552061</v>
+        <v>0.000262217591185774</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.06466541429818197</v>
+        <v>0.0003683207594925148</v>
       </c>
       <c r="G3" t="n">
-        <v>-230.37</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.007355619663963492</v>
+        <v>0.003314670568015351</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03576468206818691</v>
+        <v>0.001864027887640594</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1065803470268657</v>
+        <v>0.004218717958582076</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06075897205409854</v>
+        <v>0.01060617537260326</v>
       </c>
       <c r="G4" t="n">
-        <v>-726.02</v>
+        <v>219.98</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +576,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1424667319752059</v>
+        <v>0.009238518398437832</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1159699449990999</v>
+        <v>0.004582985396324292</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0865613170422853</v>
+        <v>0.005506271613459733</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08984968765258888</v>
+        <v>0.007775965958768337</v>
       </c>
       <c r="G5" t="n">
-        <v>36.93</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -603,19 +603,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0001677072917322167</v>
+        <v>0.002656268606109318</v>
       </c>
       <c r="D6" t="n">
-        <v>8.339398868230323e-05</v>
+        <v>0.002298837912154342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002024814893852967</v>
+        <v>0.003451849836803496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000500002183127525</v>
+        <v>0.005833212817493797</v>
       </c>
       <c r="G6" t="n">
-        <v>198.14</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="7">
@@ -626,25 +626,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003747197020581652</v>
+        <v>0.00357996922845851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001962899957342735</v>
+        <v>0.003425164477637998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000262217591185774</v>
+        <v>0.00364138109270039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003683207595542015</v>
+        <v>0.004481639219622687</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.71</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -653,19 +653,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003689581702881859</v>
+        <v>0.05762483130904181</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001864027887640594</v>
+        <v>0.05143724696356274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004218717958582076</v>
+        <v>0.07411095305832147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01060617537260326</v>
+        <v>0.1241970310391363</v>
       </c>
       <c r="G8" t="n">
-        <v>187.46</v>
+        <v>115.53</v>
       </c>
     </row>
     <row r="9">
@@ -676,25 +676,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.008692304156022918</v>
+        <v>0.08450819240292926</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004582985396324292</v>
+        <v>0.07923186344238974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005506271613459733</v>
+        <v>0.0773352299668089</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007775965958768337</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.54</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1058720392501547</v>
+        <v>0.0002355712603062426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09642829212781127</v>
+        <v>0.0001877934272300469</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1472369750784141</v>
+        <v>0.0004545454545454546</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.04510212681936188</v>
+        <v>0.0004984058456461598</v>
       </c>
       <c r="G10" t="n">
-        <v>-142.6</v>
+        <v>111.57</v>
       </c>
     </row>
     <row r="11">
@@ -726,25 +726,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02019051932429006</v>
+        <v>0.0003847070688707975</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02045183753932133</v>
+        <v>0.0003098892954471841</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06902768440048253</v>
+        <v>0.0004672995410099189</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09298737672598739</v>
+        <v>0.0001624122471890663</v>
       </c>
       <c r="G11" t="n">
-        <v>-560.55</v>
+        <v>-57.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_goals_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -753,19 +753,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002355712603062426</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001877934272300469</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004545454545454546</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004984058456461598</v>
+        <v>0.01039136302294197</v>
       </c>
       <c r="G12" t="n">
-        <v>111.57</v>
+        <v>97.44</v>
       </c>
     </row>
     <row r="13">
@@ -776,25 +776,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0003847070688707975</v>
+        <v>0.008961593172119487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003098892954471841</v>
+        <v>0.007017543859649122</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004672995410099189</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0001624122471890663</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.78</v>
+        <v>-60.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -803,19 +803,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0028877500875908</v>
+        <v>-0.03114118076430095</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002298837912154342</v>
+        <v>-0.03576468206818691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003451849836803496</v>
+        <v>-0.1065803470268657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005833212817493797</v>
+        <v>-0.06075897212076162</v>
       </c>
       <c r="G14" t="n">
-        <v>102</v>
+        <v>-95.11</v>
       </c>
     </row>
     <row r="15">
@@ -826,19 +826,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.00357996922845851</v>
+        <v>-0.1686193066338974</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003425164477637998</v>
+        <v>-0.1159699449990999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00364138109270039</v>
+        <v>-0.0865613170422853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004481639219622687</v>
+        <v>-0.08984968804401815</v>
       </c>
       <c r="G15" t="n">
-        <v>25.19</v>
+        <v>46.71</v>
       </c>
     </row>
     <row r="16">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1804436284182442</v>
+        <v>0.2006114151898341</v>
       </c>
       <c r="D16" t="n">
         <v>0.2334514962476596</v>
@@ -862,10 +862,10 @@
         <v>0.2533709284401689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3610388180181791</v>
+        <v>0.3610388190459269</v>
       </c>
       <c r="G16" t="n">
-        <v>100.08</v>
+        <v>79.97</v>
       </c>
     </row>
     <row r="17">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1996037117679667</v>
+        <v>0.2096947286925289</v>
       </c>
       <c r="D17" t="n">
         <v>0.326699207409697</v>
@@ -885,16 +885,16 @@
         <v>0.2278888643471522</v>
       </c>
       <c r="F17" t="n">
-        <v>0.285228470261127</v>
+        <v>0.2852284698297776</v>
       </c>
       <c r="G17" t="n">
-        <v>42.9</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -903,19 +903,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06288798920377865</v>
+        <v>0.02091767881241565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05143724696356274</v>
+        <v>0.02591767881241565</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07411095305832147</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241970310391363</v>
+        <v>0.03644399460188934</v>
       </c>
       <c r="G18" t="n">
-        <v>97.48999999999999</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="19">
@@ -926,25 +926,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.08450819240292926</v>
+        <v>0.03960276065539223</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07923186344238974</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0773352299668089</v>
+        <v>0.04395448079658605</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G19" t="n">
-        <v>12.1</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_pg</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -953,19 +953,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.0002307795657933498</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.0001079745566636045</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.0001978573189164246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01039136302294197</v>
+        <v>0.0003877631738384049</v>
       </c>
       <c r="G20" t="n">
-        <v>97.44</v>
+        <v>68.02</v>
       </c>
     </row>
     <row r="21">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.008961593172119487</v>
+        <v>0.0003649474648230724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007017543859649122</v>
+        <v>0.0001899140825330491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.000246973995313287</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003508771929824561</v>
+        <v>0.0003868976801618894</v>
       </c>
       <c r="G21" t="n">
-        <v>-60.85</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1003,19 +1003,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02091767881241565</v>
+        <v>0.0548318957929943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02591767881241565</v>
+        <v>0.07627268298623797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.08102118040198543</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03644399460188934</v>
+        <v>0.08719298245614035</v>
       </c>
       <c r="G22" t="n">
-        <v>74.23</v>
+        <v>59.02</v>
       </c>
     </row>
     <row r="23">
@@ -1026,25 +1026,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.03960276065539223</v>
+        <v>0.06900004430062925</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02987197724039829</v>
+        <v>0.0647366843738061</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04395448079658605</v>
+        <v>0.0621722046266414</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.06128376783175545</v>
       </c>
       <c r="G23" t="n">
-        <v>-33.55</v>
+        <v>-11.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_goals_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000231287590235866</v>
+        <v>0.1035290148448043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001079745566636045</v>
+        <v>0.07734143049932521</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001978573189164246</v>
+        <v>0.1002844950213371</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0003877631738384049</v>
+        <v>0.1636369770580297</v>
       </c>
       <c r="G24" t="n">
-        <v>67.65000000000001</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="25">
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0003472657586292511</v>
+        <v>0.1566092408197671</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001899140825330491</v>
+        <v>0.1694642010431484</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000246973995313287</v>
+        <v>0.1211474632527264</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0003868976719940723</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="G25" t="n">
-        <v>11.41</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_red_cards_pg</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0548318957929943</v>
+        <v>0.09879892037786772</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07627268298623797</v>
+        <v>0.06195006747638328</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08102118040198543</v>
+        <v>0.09004267425320053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08719298245614035</v>
+        <v>0.04143724696356275</v>
       </c>
       <c r="G26" t="n">
-        <v>59.02</v>
+        <v>-58.06</v>
       </c>
     </row>
     <row r="27">
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.06900004430062925</v>
+        <v>0.09537959011643223</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0647366843738061</v>
+        <v>0.07771455666192506</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0621722046266414</v>
+        <v>0.07558084400189662</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06128376783175545</v>
+        <v>0.0719298245614035</v>
       </c>
       <c r="G27" t="n">
-        <v>-11.18</v>
+        <v>-24.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_conceded_pg</t>
+          <t>team_season_shots_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1153,19 +1153,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1035290148448043</v>
+        <v>1.274365721997301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07734143049932521</v>
+        <v>1.38970310391363</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1002844950213371</v>
+        <v>1.339829302987198</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1636369770580297</v>
+        <v>2.00470310391363</v>
       </c>
       <c r="G28" t="n">
-        <v>58.06</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="29">
@@ -1176,25 +1176,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1566092408197671</v>
+        <v>1.648888362046257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1694642010431484</v>
+        <v>1.868847795163585</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1211474632527264</v>
+        <v>1.871550497866287</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1473684210526316</v>
+        <v>1.917543859649123</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.9</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_red_cards_pg</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1203,19 +1203,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.09879892037786772</v>
+        <v>0.04630229419703104</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06195006747638328</v>
+        <v>0.05170040485829959</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09004267425320053</v>
+        <v>0.04793741109530583</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04143724696356275</v>
+        <v>0.0205195681511471</v>
       </c>
       <c r="G30" t="n">
-        <v>-58.06</v>
+        <v>-55.68</v>
       </c>
     </row>
     <row r="31">
@@ -1226,25 +1226,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.09537959011643223</v>
+        <v>0.03594647278857806</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07771455666192506</v>
+        <v>0.02807017543859649</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07558084400189662</v>
+        <v>0.02456140350877192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0719298245614035</v>
+        <v>0.02982456140350877</v>
       </c>
       <c r="G31" t="n">
-        <v>-24.59</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_conceded_pg</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1253,19 +1253,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.274365721997301</v>
+        <v>0.005210734033421707</v>
       </c>
       <c r="D32" t="n">
-        <v>1.38970310391363</v>
+        <v>0.002625752584518571</v>
       </c>
       <c r="E32" t="n">
-        <v>1.339829302987198</v>
+        <v>0.004448331041847108</v>
       </c>
       <c r="F32" t="n">
-        <v>2.00470310391363</v>
+        <v>0.008078011514143904</v>
       </c>
       <c r="G32" t="n">
-        <v>57.31</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="33">
@@ -1276,25 +1276,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.648888362046257</v>
+        <v>0.008483000394258854</v>
       </c>
       <c r="D33" t="n">
-        <v>1.868847795163585</v>
+        <v>0.004310803803548592</v>
       </c>
       <c r="E33" t="n">
-        <v>1.871550497866287</v>
+        <v>0.005419667021006226</v>
       </c>
       <c r="F33" t="n">
-        <v>1.917543859649123</v>
+        <v>0.008620895461685823</v>
       </c>
       <c r="G33" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1303,19 +1303,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.04630229419703104</v>
+        <v>2.108603238866397</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05170040485829959</v>
+        <v>1.982010796221322</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04793741109530583</v>
+        <v>2.432859174964438</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0205195681511471</v>
+        <v>3.189574898785425</v>
       </c>
       <c r="G34" t="n">
-        <v>-55.68</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="35">
@@ -1326,25 +1326,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03594647278857806</v>
+        <v>2.646865286338971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02807017543859649</v>
+        <v>2.862731152204836</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02456140350877192</v>
+        <v>3.163442389758179</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02982456140350877</v>
+        <v>3.345614035087719</v>
       </c>
       <c r="G35" t="n">
-        <v>-17.03</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005223488833770338</v>
+        <v>0.04144399460188933</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002625752584518571</v>
+        <v>0.0360391363022942</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004448331041847108</v>
+        <v>0.05277382645803699</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008078011514143904</v>
+        <v>0.06222672064777329</v>
       </c>
       <c r="G36" t="n">
-        <v>54.65</v>
+        <v>50.15</v>
       </c>
     </row>
     <row r="37">
@@ -1376,25 +1376,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.008063468145043965</v>
+        <v>0.03248511669564302</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004310803803548592</v>
+        <v>0.02636320531057373</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005419667021006226</v>
+        <v>0.03342816500711237</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008620895461685823</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G37" t="n">
-        <v>6.91</v>
+        <v>-45.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1403,19 +1403,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.108603238866397</v>
+        <v>0.08929697401857434</v>
       </c>
       <c r="D38" t="n">
-        <v>1.982010796221322</v>
+        <v>0.05692076141545712</v>
       </c>
       <c r="E38" t="n">
-        <v>2.432859174964438</v>
+        <v>0.08896883206738751</v>
       </c>
       <c r="F38" t="n">
-        <v>3.189574898785425</v>
+        <v>0.04591160603989967</v>
       </c>
       <c r="G38" t="n">
-        <v>51.26</v>
+        <v>-48.59</v>
       </c>
     </row>
     <row r="39">
@@ -1426,25 +1426,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.646865286338971</v>
+        <v>0.07407565305994877</v>
       </c>
       <c r="D39" t="n">
-        <v>2.862731152204836</v>
+        <v>0.06202411557275726</v>
       </c>
       <c r="E39" t="n">
-        <v>3.163442389758179</v>
+        <v>0.05610875563880172</v>
       </c>
       <c r="F39" t="n">
-        <v>3.345614035087719</v>
+        <v>0.05704513677853372</v>
       </c>
       <c r="G39" t="n">
-        <v>26.4</v>
+        <v>-22.99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1453,19 +1453,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03265112686840699</v>
+        <v>1.41136302294197</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02821263080803105</v>
+        <v>1.296167341430499</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02312928412664698</v>
+        <v>1.436273115220484</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01615916554860371</v>
+        <v>2.044176788124156</v>
       </c>
       <c r="G40" t="n">
-        <v>-50.51</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="41">
@@ -1476,25 +1476,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03301752380643343</v>
+        <v>1.629856171961435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02648232635523507</v>
+        <v>1.889236605026078</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02275645298348549</v>
+        <v>2.121479374110953</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02171314394371094</v>
+        <v>2.180701754385965</v>
       </c>
       <c r="G41" t="n">
-        <v>-34.24</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1503,19 +1503,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.04144399460188933</v>
+        <v>-0.08953431156414905</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0360391363022942</v>
+        <v>-0.08066632457957293</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05277382645803699</v>
+        <v>-0.1352750901429573</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06222672064777329</v>
+        <v>-0.1284559023603747</v>
       </c>
       <c r="G42" t="n">
-        <v>50.15</v>
+        <v>-43.47</v>
       </c>
     </row>
     <row r="43">
@@ -1526,25 +1526,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.03248511669564302</v>
+        <v>-0.07932731463225948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02636320531057373</v>
+        <v>0.04107616597335236</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03342816500711237</v>
+        <v>-0.0732617178552061</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01754385964912281</v>
+        <v>-0.06466541440275153</v>
       </c>
       <c r="G43" t="n">
-        <v>-45.99</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1553,19 +1553,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.09027498560640257</v>
+        <v>0.4241851432351005</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05692076141545712</v>
+        <v>0.4081699306627437</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08896883206738751</v>
+        <v>0.3170827347557371</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04591160603989967</v>
+        <v>0.2416000754960314</v>
       </c>
       <c r="G44" t="n">
-        <v>-49.14</v>
+        <v>-43.04</v>
       </c>
     </row>
     <row r="45">
@@ -1576,25 +1576,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.07191846384810009</v>
+        <v>-0.1467975858769109</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06202411557275726</v>
+        <v>-0.1387299134316971</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05610875563880172</v>
+        <v>-0.1056439943551565</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05704513677853372</v>
+        <v>-0.08209550997667144</v>
       </c>
       <c r="G45" t="n">
-        <v>-20.68</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1603,19 +1603,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4614868034691865</v>
+        <v>0.06195681511470985</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4081699306627437</v>
+        <v>0.06682186234817813</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3170827347557371</v>
+        <v>0.06330014224751065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2416000748686141</v>
+        <v>0.03564777327935222</v>
       </c>
       <c r="G46" t="n">
-        <v>-47.65</v>
+        <v>-42.46</v>
       </c>
     </row>
     <row r="47">
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.1600300710928367</v>
+        <v>0.07004636215162531</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1387299134316971</v>
+        <v>0.04935988620199147</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1056439943551565</v>
+        <v>0.05623518255097202</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.08209551018581053</v>
+        <v>0.05087719298245612</v>
       </c>
       <c r="G47" t="n">
-        <v>48.7</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="48">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1181557273970696</v>
+        <v>0.1230061092376131</v>
       </c>
       <c r="D48" t="n">
         <v>0.108784168199014</v>
@@ -1665,7 +1665,7 @@
         <v>0.1725702334426134</v>
       </c>
       <c r="G48" t="n">
-        <v>46.05</v>
+        <v>40.29</v>
       </c>
     </row>
     <row r="49">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1536396098626455</v>
+        <v>0.1586929996373004</v>
       </c>
       <c r="D49" t="n">
         <v>0.1616936215567599</v>
@@ -1688,13 +1688,13 @@
         <v>0.1658884152067466</v>
       </c>
       <c r="G49" t="n">
-        <v>7.97</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1703,19 +1703,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.41136302294197</v>
+        <v>0.4767326742426747</v>
       </c>
       <c r="D50" t="n">
-        <v>1.296167341430499</v>
+        <v>0.4272029465991959</v>
       </c>
       <c r="E50" t="n">
-        <v>1.436273115220484</v>
+        <v>0.3923121124166852</v>
       </c>
       <c r="F50" t="n">
-        <v>2.044176788124156</v>
+        <v>0.290354712632021</v>
       </c>
       <c r="G50" t="n">
-        <v>44.84</v>
+        <v>-39.09</v>
       </c>
     </row>
     <row r="51">
@@ -1726,25 +1726,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.629856171961435</v>
+        <v>-0.1654635547698219</v>
       </c>
       <c r="D51" t="n">
-        <v>1.889236605026078</v>
+        <v>-0.1452379757247869</v>
       </c>
       <c r="E51" t="n">
-        <v>2.121479374110953</v>
+        <v>-0.1304232539922607</v>
       </c>
       <c r="F51" t="n">
-        <v>2.180701754385965</v>
+        <v>-0.09859024641806619</v>
       </c>
       <c r="G51" t="n">
-        <v>33.8</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1753,19 +1753,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.03528899709807206</v>
+        <v>0.02648815569429509</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02663453044152382</v>
+        <v>0.02821263080803105</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01578890262582308</v>
+        <v>0.02312928412664698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01953168664997326</v>
+        <v>0.01615916554860371</v>
       </c>
       <c r="G52" t="n">
-        <v>-44.65</v>
+        <v>-38.99</v>
       </c>
     </row>
     <row r="53">
@@ -1776,25 +1776,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.03223136964225966</v>
+        <v>0.02702780017157446</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02703302819418711</v>
+        <v>0.02648232635523507</v>
       </c>
       <c r="E53" t="n">
-        <v>0.025208978419779</v>
+        <v>0.02275645298348549</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02059455159071245</v>
+        <v>0.02171314394371094</v>
       </c>
       <c r="G53" t="n">
-        <v>-36.1</v>
+        <v>-19.66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_xg_per_free_kick</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1803,19 +1803,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5139019250220213</v>
+        <v>0.005580168451498324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4272029465991959</v>
+        <v>0.004270763208160233</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3923121124166852</v>
+        <v>0.006093422098238699</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2903547120046037</v>
+        <v>0.003423486590646533</v>
       </c>
       <c r="G54" t="n">
-        <v>-43.5</v>
+        <v>-38.65</v>
       </c>
     </row>
     <row r="55">
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.1786479432527367</v>
+        <v>0.00457123103300106</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1452379757247869</v>
+        <v>0.004063397033010101</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1304232539922607</v>
+        <v>0.003785271759078869</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.09859024704548351</v>
+        <v>0.003875616715553275</v>
       </c>
       <c r="G55" t="n">
-        <v>44.81</v>
+        <v>-15.22</v>
       </c>
     </row>
     <row r="56">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19.6849178</v>
+        <v>18.24228334</v>
       </c>
       <c r="D56" t="n">
         <v>16.46211164</v>
@@ -1862,10 +1862,10 @@
         <v>14.7997884</v>
       </c>
       <c r="F56" t="n">
-        <v>11.23928866</v>
+        <v>11.23928826</v>
       </c>
       <c r="G56" t="n">
-        <v>-42.9</v>
+        <v>-38.39</v>
       </c>
     </row>
     <row r="57">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-6.561639493333333</v>
+        <v>-6.080761679999999</v>
       </c>
       <c r="D57" t="n">
         <v>-5.487370475999999</v>
@@ -1885,16 +1885,16 @@
         <v>-4.933262974666667</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.746429596</v>
+        <v>-3.746429284666667</v>
       </c>
       <c r="G57" t="n">
-        <v>42.9</v>
+        <v>38.39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1903,19 +1903,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.06195681511470985</v>
+        <v>0.1656477732793522</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06682186234817813</v>
+        <v>0.1133940620782726</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06330014224751065</v>
+        <v>0.1001422475106686</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03564777327935222</v>
+        <v>0.1025910931174089</v>
       </c>
       <c r="G58" t="n">
-        <v>-42.46</v>
+        <v>-38.07</v>
       </c>
     </row>
     <row r="59">
@@ -1926,25 +1926,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.07004636215162531</v>
+        <v>0.1941257046520204</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04935988620199147</v>
+        <v>0.1090564248458985</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05623518255097202</v>
+        <v>0.1774774774774775</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05087719298245612</v>
+        <v>0.1596491228070175</v>
       </c>
       <c r="G59" t="n">
-        <v>-27.37</v>
+        <v>-17.76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1953,19 +1953,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.005646258350155973</v>
+        <v>0.03078128269916922</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004270763208160233</v>
+        <v>0.02663453044152382</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006093422098238699</v>
+        <v>0.01578890262582308</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003423486364776327</v>
+        <v>0.01953168664997326</v>
       </c>
       <c r="G60" t="n">
-        <v>-39.37</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="61">
@@ -1976,25 +1976,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.004441643189989732</v>
+        <v>0.02566822237818765</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004063397033010101</v>
+        <v>0.02703302819418711</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003785271759078869</v>
+        <v>0.025208978419779</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003875616587637391</v>
+        <v>0.02059455159071245</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.74</v>
+        <v>-19.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -2003,19 +2003,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2291196409974614</v>
+        <v>0.8848313090418353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3243431458028986</v>
+        <v>0.6206410256410256</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1857083870744489</v>
+        <v>0.8453769559032717</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3170983719385472</v>
+        <v>0.5615654520917679</v>
       </c>
       <c r="G62" t="n">
-        <v>38.4</v>
+        <v>-36.53</v>
       </c>
     </row>
     <row r="63">
@@ -2026,25 +2026,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1834604027261973</v>
+        <v>0.7567646593962383</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2957828986991485</v>
+        <v>0.7220483641536272</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2498913498156854</v>
+        <v>0.7038880986249407</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3002421885009921</v>
+        <v>0.724561403508772</v>
       </c>
       <c r="G63" t="n">
-        <v>63.66</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -2053,19 +2053,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1656477732793522</v>
+        <v>0.5796356275303645</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1133940620782726</v>
+        <v>0.442523616734143</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1001422475106686</v>
+        <v>0.5665718349928877</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1025910931174089</v>
+        <v>0.3693522267206478</v>
       </c>
       <c r="G64" t="n">
-        <v>-38.07</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="65">
@@ -2076,25 +2076,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1941257046520204</v>
+        <v>0.5577603919709182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1090564248458985</v>
+        <v>0.5577999051683261</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1774774774774775</v>
+        <v>0.4636320531057372</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1596491228070175</v>
+        <v>0.431578947368421</v>
       </c>
       <c r="G65" t="n">
-        <v>-17.76</v>
+        <v>-22.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2103,19 +2103,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8848313090418353</v>
+        <v>0.6312078272604589</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6206410256410256</v>
+        <v>0.5044736842105263</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8453769559032717</v>
+        <v>0.5879089615931721</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5615654520917679</v>
+        <v>0.4055263157894737</v>
       </c>
       <c r="G66" t="n">
-        <v>-36.53</v>
+        <v>-35.75</v>
       </c>
     </row>
     <row r="67">
@@ -2126,25 +2126,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.755010273431326</v>
+        <v>0.6043754280596386</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7220483641536272</v>
+        <v>0.5861071597913703</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7038880986249407</v>
+        <v>0.5023233760075865</v>
       </c>
       <c r="F67" t="n">
-        <v>0.724561403508772</v>
+        <v>0.4684210526315789</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.03</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_pg</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2153,19 +2153,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5796356275303645</v>
+        <v>0.5417611336032389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.442523616734143</v>
+        <v>0.6079217273954115</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5665718349928877</v>
+        <v>0.3917496443812233</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3693522267206478</v>
+        <v>0.3483535762483131</v>
       </c>
       <c r="G68" t="n">
-        <v>-36.28</v>
+        <v>-35.7</v>
       </c>
     </row>
     <row r="69">
@@ -2176,25 +2176,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5577603919709182</v>
+        <v>-0.1886755176228861</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5577999051683261</v>
+        <v>-0.2078710289236605</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4636320531057372</v>
+        <v>-0.1301564722617354</v>
       </c>
       <c r="F69" t="n">
-        <v>0.431578947368421</v>
+        <v>-0.1175438596491228</v>
       </c>
       <c r="G69" t="n">
-        <v>-22.62</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6312078272604589</v>
+        <v>1.850546558704453</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5044736842105263</v>
+        <v>2.057267206477733</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5879089615931721</v>
+        <v>2.061166429587483</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4055263157894737</v>
+        <v>2.477112010796222</v>
       </c>
       <c r="G70" t="n">
-        <v>-35.75</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="71">
@@ -2226,25 +2226,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6043754280596386</v>
+        <v>1.447542279121226</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5861071597913703</v>
+        <v>1.643243243243244</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5023233760075865</v>
+        <v>1.630867709815078</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4684210526315789</v>
+        <v>1.757894736842105</v>
       </c>
       <c r="G71" t="n">
-        <v>-22.5</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_sp_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2253,19 +2253,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5417611336032389</v>
+        <v>0.004602054893653608</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6079217273954115</v>
+        <v>0.004444633505581637</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3917496443812233</v>
+        <v>0.004752639052940442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3483535762483131</v>
+        <v>0.00603477959938006</v>
       </c>
       <c r="G72" t="n">
-        <v>-35.7</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="73">
@@ -2276,25 +2276,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.1886755176228861</v>
+        <v>0.006228365546633081</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.2078710289236605</v>
+        <v>0.005949094163206931</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1301564722617354</v>
+        <v>0.005404538082167351</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1175438596491228</v>
+        <v>0.005495062825818825</v>
       </c>
       <c r="G73" t="n">
-        <v>37.7</v>
+        <v>-11.77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2303,19 +2303,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.850546558704453</v>
+        <v>0.6285762483130904</v>
       </c>
       <c r="D74" t="n">
-        <v>2.057267206477733</v>
+        <v>0.6382860998650473</v>
       </c>
       <c r="E74" t="n">
-        <v>2.061166429587483</v>
+        <v>0.5034139402560455</v>
       </c>
       <c r="F74" t="n">
-        <v>2.477112010796222</v>
+        <v>0.4414912280701754</v>
       </c>
       <c r="G74" t="n">
-        <v>33.86</v>
+        <v>-29.76</v>
       </c>
     </row>
     <row r="75">
@@ -2326,25 +2326,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.447542279121226</v>
+        <v>-0.2196169854064591</v>
       </c>
       <c r="D75" t="n">
-        <v>1.643243243243244</v>
+        <v>-0.2183499288762447</v>
       </c>
       <c r="E75" t="n">
-        <v>1.630867709815078</v>
+        <v>-0.1669511616880038</v>
       </c>
       <c r="F75" t="n">
-        <v>1.757894736842105</v>
+        <v>-0.1491228070175438</v>
       </c>
       <c r="G75" t="n">
-        <v>21.44</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio_conceded</t>
+          <t>team_season_gd</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.004602054893653608</v>
+        <v>24.2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004444633505581637</v>
+        <v>24.6</v>
       </c>
       <c r="E76" t="n">
-        <v>0.004752639052940442</v>
+        <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00603477959938006</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n">
-        <v>31.13</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="77">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.006228365546633081</v>
+        <v>-8.066666666666666</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005949094163206931</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.005404538082167351</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005495062825818825</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>-11.77</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_penalty_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2403,19 +2403,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.06709851551956816</v>
+        <v>0.1092037786774629</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05631578947368421</v>
+        <v>0.07774628879892036</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09530583214793739</v>
+        <v>0.07908961593172119</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04670040485829959</v>
+        <v>0.07694331983805669</v>
       </c>
       <c r="G78" t="n">
-        <v>-30.4</v>
+        <v>-29.54</v>
       </c>
     </row>
     <row r="79">
@@ -2426,25 +2426,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.08198461619514254</v>
+        <v>0.1474553500869291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07743006164058795</v>
+        <v>0.0914651493598862</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07027027027027027</v>
+        <v>0.1458036984352774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1210526315789474</v>
+        <v>0.1280701754385965</v>
       </c>
       <c r="G79" t="n">
-        <v>47.65</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2453,19 +2453,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.6285762483130904</v>
+        <v>0.06155515370004892</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6382860998650473</v>
+        <v>0.06190606423036943</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5034139402560455</v>
+        <v>0.06582264719250304</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4414912280701754</v>
+        <v>0.07967277763311517</v>
       </c>
       <c r="G80" t="n">
-        <v>-29.76</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="81">
@@ -2476,25 +2476,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.2196169854064591</v>
+        <v>0.07122833641811677</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2183499288762447</v>
+        <v>0.07456103785302214</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1669511616880038</v>
+        <v>0.07820663709442933</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.1491228070175438</v>
+        <v>0.07710589795687248</v>
       </c>
       <c r="G81" t="n">
-        <v>32.1</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -2503,19 +2503,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24.2</v>
+        <v>0.232719298245614</v>
       </c>
       <c r="D82" t="n">
-        <v>24.6</v>
+        <v>0.13889338731444</v>
       </c>
       <c r="E82" t="n">
-        <v>19</v>
+        <v>0.1961593172119488</v>
       </c>
       <c r="F82" t="n">
-        <v>17</v>
+        <v>0.1648178137651822</v>
       </c>
       <c r="G82" t="n">
-        <v>-29.75</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="83">
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-8.066666666666666</v>
+        <v>0.1703018808281966</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.199999999999999</v>
+        <v>0.1003319108582266</v>
       </c>
       <c r="E83" t="n">
-        <v>-6.333333333333333</v>
+        <v>0.1458511142721669</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.666666666666667</v>
+        <v>0.1385964912280701</v>
       </c>
       <c r="G83" t="n">
-        <v>29.75</v>
+        <v>-18.62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_conceded_pg</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
@@ -2553,19 +2553,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.1092037786774629</v>
+        <v>0.03969386353391716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07774628879892036</v>
+        <v>0.04079142557975032</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07908961593172119</v>
+        <v>0.03614934004281049</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07694331983805669</v>
+        <v>0.02813748351464508</v>
       </c>
       <c r="G84" t="n">
-        <v>-29.54</v>
+        <v>-29.11</v>
       </c>
     </row>
     <row r="85">
@@ -2576,25 +2576,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1474553500869291</v>
+        <v>0.03189053124191361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0914651493598862</v>
+        <v>0.02816721422214759</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1458036984352774</v>
+        <v>0.02336258895456374</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1280701754385965</v>
+        <v>0.03354239013945148</v>
       </c>
       <c r="G85" t="n">
-        <v>-13.15</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2603,19 +2603,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.232719298245614</v>
+        <v>0.6218758434547909</v>
       </c>
       <c r="D86" t="n">
-        <v>0.13889338731444</v>
+        <v>0.4839271255060729</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1961593172119488</v>
+        <v>0.4438122332859175</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1648178137651822</v>
+        <v>0.4418353576248313</v>
       </c>
       <c r="G86" t="n">
-        <v>-29.18</v>
+        <v>-28.95</v>
       </c>
     </row>
     <row r="87">
@@ -2626,25 +2626,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.1703018808281966</v>
+        <v>0.609422580475212</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1003319108582266</v>
+        <v>0.5933143669985774</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1458511142721669</v>
+        <v>0.5503556187766715</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1385964912280701</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="G87" t="n">
-        <v>-18.62</v>
+        <v>-25.15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2653,19 +2653,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.06167830640940852</v>
+        <v>0.00369320770525905</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06190606423036943</v>
+        <v>0.004507291741950387</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06582264719250304</v>
+        <v>0.004050806853787188</v>
       </c>
       <c r="F88" t="n">
-        <v>0.07967277763311517</v>
+        <v>0.00264616862622139</v>
       </c>
       <c r="G88" t="n">
-        <v>29.17</v>
+        <v>-28.35</v>
       </c>
     </row>
     <row r="89">
@@ -2676,25 +2676,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.07118560137538173</v>
+        <v>0.004283834335640969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07456103785302214</v>
+        <v>0.003338972907754803</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07820663709442933</v>
+        <v>0.003873020367702915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.07710589795687248</v>
+        <v>0.003370445132398002</v>
       </c>
       <c r="G89" t="n">
-        <v>8.32</v>
+        <v>-21.32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2703,19 +2703,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.03969386353391716</v>
+        <v>2.076302294197031</v>
       </c>
       <c r="D90" t="n">
-        <v>0.04079142557975032</v>
+        <v>1.954952766531714</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03614934004281049</v>
+        <v>2.012375533428165</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02813748351464508</v>
+        <v>2.664520917678813</v>
       </c>
       <c r="G90" t="n">
-        <v>-29.11</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="91">
@@ -2726,25 +2726,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03189053124191361</v>
+        <v>2.33371792845477</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02816721422214759</v>
+        <v>2.380654338549076</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02336258895456374</v>
+        <v>2.424134660976767</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03354239013945148</v>
+        <v>2.550877192982457</v>
       </c>
       <c r="G91" t="n">
-        <v>5.18</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2753,19 +2753,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.6218758434547909</v>
+        <v>0.07784511784511777</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4839271255060729</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4438122332859175</v>
+        <v>0.07755240027045299</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4418353576248313</v>
+        <v>0.05634920634920637</v>
       </c>
       <c r="G92" t="n">
-        <v>-28.95</v>
+        <v>-27.61</v>
       </c>
     </row>
     <row r="93">
@@ -2776,25 +2776,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.609422580475212</v>
+        <v>0.06162298840005302</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5933143669985774</v>
+        <v>0.03954980204980205</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5503556187766715</v>
+        <v>0.04826660668765932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.456140350877193</v>
+        <v>0.06696836107362419</v>
       </c>
       <c r="G93" t="n">
-        <v>-25.15</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2803,19 +2803,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.00369320770525905</v>
+        <v>0.03604588394062078</v>
       </c>
       <c r="D94" t="n">
-        <v>0.004507291741950387</v>
+        <v>0.03091093117408907</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004050806853787188</v>
+        <v>0.0422475106685633</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00264616862622139</v>
+        <v>0.04591093117408906</v>
       </c>
       <c r="G94" t="n">
-        <v>-28.35</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +2826,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.004283834335640969</v>
+        <v>0.06293398661819714</v>
       </c>
       <c r="D95" t="n">
-        <v>0.003338972907754803</v>
+        <v>0.04760550023707918</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003873020367702915</v>
+        <v>0.04395448079658606</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003370445132398002</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="G95" t="n">
-        <v>-21.32</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.076302294197031</v>
+        <v>0.5708434547908232</v>
       </c>
       <c r="D96" t="n">
-        <v>1.954952766531714</v>
+        <v>0.4427597840755736</v>
       </c>
       <c r="E96" t="n">
-        <v>2.012375533428165</v>
+        <v>0.4227596017069702</v>
       </c>
       <c r="F96" t="n">
-        <v>2.664520917678813</v>
+        <v>0.416187584345479</v>
       </c>
       <c r="G96" t="n">
-        <v>28.33</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="97">
@@ -2876,25 +2876,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.33371792845477</v>
+        <v>0.5626126126126128</v>
       </c>
       <c r="D97" t="n">
-        <v>2.380654338549076</v>
+        <v>0.5581792318634424</v>
       </c>
       <c r="E97" t="n">
-        <v>2.424134660976767</v>
+        <v>0.5117117117117118</v>
       </c>
       <c r="F97" t="n">
-        <v>2.550877192982457</v>
+        <v>0.4157894736842104</v>
       </c>
       <c r="G97" t="n">
-        <v>9.31</v>
+        <v>-26.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -2903,19 +2903,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.1630535345179451</v>
+        <v>0.2499862047412034</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1841421276994939</v>
+        <v>0.3243431458028986</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1661413105994272</v>
+        <v>0.1857083870744489</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2091544946642183</v>
+        <v>0.3170983720270228</v>
       </c>
       <c r="G98" t="n">
-        <v>28.27</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="99">
@@ -2926,25 +2926,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.1379452420780841</v>
+        <v>0.19339062390347</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1361979098304322</v>
+        <v>0.2957828986991485</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1376649278725002</v>
+        <v>0.2498913498156854</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1535161570523327</v>
+        <v>0.300242188435636</v>
       </c>
       <c r="G99" t="n">
-        <v>11.29</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio</t>
+          <t>team_season_corner_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -2953,19 +2953,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.07784511784511777</v>
+        <v>0.3329410375410444</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1181818181818182</v>
+        <v>0.3560592125245786</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07755240027045299</v>
+        <v>0.3579795216603728</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05634920634920637</v>
+        <v>0.4214560660402622</v>
       </c>
       <c r="G100" t="n">
-        <v>-27.61</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="101">
@@ -2976,25 +2976,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.06162298840005302</v>
+        <v>0.3755443597192635</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03954980204980205</v>
+        <v>0.3987763519428118</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04826660668765932</v>
+        <v>0.411595208327542</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06696836107362419</v>
+        <v>0.4042645648254847</v>
       </c>
       <c r="G101" t="n">
-        <v>8.67</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -3003,19 +3003,19 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.002969864076978012</v>
+        <v>0.0269465739827884</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002280491406148333</v>
+        <v>0.01955765795831942</v>
       </c>
       <c r="E102" t="n">
-        <v>0.004432869868167986</v>
+        <v>0.02679638328574498</v>
       </c>
       <c r="F102" t="n">
-        <v>0.002151339989587681</v>
+        <v>0.03387320461092232</v>
       </c>
       <c r="G102" t="n">
-        <v>-27.56</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="103">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.003544848996982378</v>
+        <v>0.03451300726252444</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003402562032743012</v>
+        <v>0.03630363835623288</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003255771681416016</v>
+        <v>0.02645841167415137</v>
       </c>
       <c r="F103" t="n">
-        <v>0.005406736349849786</v>
+        <v>0.03153409129924074</v>
       </c>
       <c r="G103" t="n">
-        <v>52.52</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -3053,19 +3053,19 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.03604588394062078</v>
+        <v>0.1664438369577781</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03091093117408907</v>
+        <v>0.1841421276994939</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0422475106685633</v>
+        <v>0.1661413105994272</v>
       </c>
       <c r="F104" t="n">
-        <v>0.04591093117408906</v>
+        <v>0.2091544946642183</v>
       </c>
       <c r="G104" t="n">
-        <v>27.37</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="105">
@@ -3076,25 +3076,25 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.06293398661819714</v>
+        <v>0.1435262175531049</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04760550023707918</v>
+        <v>0.1361979098304322</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04395448079658606</v>
+        <v>0.1376649278725002</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03157894736842105</v>
+        <v>0.1535161570523327</v>
       </c>
       <c r="G105" t="n">
-        <v>-49.82</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_completed_dribbles_pg</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -3103,19 +3103,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.5708434547908232</v>
+        <v>10.62773954116059</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4427597840755736</v>
+        <v>7.792827260458838</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4227596017069702</v>
+        <v>7.383214793741109</v>
       </c>
       <c r="F106" t="n">
-        <v>0.416187584345479</v>
+        <v>7.918252361673413</v>
       </c>
       <c r="G106" t="n">
-        <v>-27.09</v>
+        <v>-25.49</v>
       </c>
     </row>
     <row r="107">
@@ -3126,25 +3126,25 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.5626126126126128</v>
+        <v>9.522925557136084</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5581792318634424</v>
+        <v>9.055097202465623</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5117117117117118</v>
+        <v>7.898055950687529</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4157894736842104</v>
+        <v>7.54561403508772</v>
       </c>
       <c r="G107" t="n">
-        <v>-26.1</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio_conceded</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -3153,19 +3153,19 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3329410375410444</v>
+        <v>8.066800752632428</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3560592125245786</v>
+        <v>7.588421398550244</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3579795216603728</v>
+        <v>8.911094365137584</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4214560660402622</v>
+        <v>10.09772207316941</v>
       </c>
       <c r="G108" t="n">
-        <v>26.59</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="109">
@@ -3176,25 +3176,25 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.3755443597192635</v>
+        <v>9.42464867259935</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3987763519428118</v>
+        <v>9.033037926145138</v>
       </c>
       <c r="E109" t="n">
-        <v>0.411595208327542</v>
+        <v>10.54986617128197</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4042645648254847</v>
+        <v>10.79098898519405</v>
       </c>
       <c r="G109" t="n">
-        <v>7.65</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
@@ -3203,19 +3203,19 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.00516494877111286</v>
+        <v>5.99368988218628</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004629527621200208</v>
+        <v>6.100330299537314</v>
       </c>
       <c r="E110" t="n">
-        <v>0.004744526435058664</v>
+        <v>5.242346379970898</v>
       </c>
       <c r="F110" t="n">
-        <v>0.006501736983012226</v>
+        <v>4.501427303513627</v>
       </c>
       <c r="G110" t="n">
-        <v>25.88</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="111">
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.006195264328069177</v>
+        <v>4.807418068623488</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00587135420291127</v>
+        <v>4.841992817539686</v>
       </c>
       <c r="E111" t="n">
-        <v>0.006141694122025771</v>
+        <v>4.253694860876831</v>
       </c>
       <c r="F111" t="n">
-        <v>0.006003089292247284</v>
+        <v>4.21504563824839</v>
       </c>
       <c r="G111" t="n">
-        <v>-3.1</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -3253,19 +3253,19 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0269465739827884</v>
+        <v>0.06209851551956815</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01955765795831942</v>
+        <v>0.05631578947368421</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02679638328574498</v>
+        <v>0.09530583214793739</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03387320461092232</v>
+        <v>0.04670040485829959</v>
       </c>
       <c r="G112" t="n">
-        <v>25.71</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="113">
@@ -3276,25 +3276,25 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.03451300726252444</v>
+        <v>0.08198461619514254</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03630363835623288</v>
+        <v>0.07743006164058795</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02645841167415137</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03153409129924074</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="G113" t="n">
-        <v>-8.630000000000001</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_pg</t>
+          <t>team_season_goals_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3303,19 +3303,19 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>10.62773954116059</v>
+        <v>0.06156545209176789</v>
       </c>
       <c r="D114" t="n">
-        <v>7.792827260458838</v>
+        <v>0.06249662618083671</v>
       </c>
       <c r="E114" t="n">
-        <v>7.383214793741109</v>
+        <v>0.09516358463726882</v>
       </c>
       <c r="F114" t="n">
-        <v>7.918252361673413</v>
+        <v>0.04630229419703104</v>
       </c>
       <c r="G114" t="n">
-        <v>-25.49</v>
+        <v>-24.79</v>
       </c>
     </row>
     <row r="115">
@@ -3326,25 +3326,25 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9.522925557136084</v>
+        <v>0.07048627574943363</v>
       </c>
       <c r="D115" t="n">
-        <v>9.055097202465623</v>
+        <v>0.05097202465623516</v>
       </c>
       <c r="E115" t="n">
-        <v>7.898055950687529</v>
+        <v>0.04570886676149833</v>
       </c>
       <c r="F115" t="n">
-        <v>7.54561403508772</v>
+        <v>0.04736842105263157</v>
       </c>
       <c r="G115" t="n">
-        <v>-20.76</v>
+        <v>-32.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
@@ -3353,19 +3353,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8.066800752632428</v>
+        <v>0.05522742531573203</v>
       </c>
       <c r="D116" t="n">
-        <v>7.588421398550244</v>
+        <v>0.04643866040683807</v>
       </c>
       <c r="E116" t="n">
-        <v>8.911094365137584</v>
+        <v>0.05914374089587741</v>
       </c>
       <c r="F116" t="n">
-        <v>10.09772207316941</v>
+        <v>0.04172886152317064</v>
       </c>
       <c r="G116" t="n">
-        <v>25.18</v>
+        <v>-24.44</v>
       </c>
     </row>
     <row r="117">
@@ -3376,25 +3376,25 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9.42464867259935</v>
+        <v>0.04667854491100156</v>
       </c>
       <c r="D117" t="n">
-        <v>9.033037926145138</v>
+        <v>0.0468543765871102</v>
       </c>
       <c r="E117" t="n">
-        <v>10.54986617128197</v>
+        <v>0.04738185535429135</v>
       </c>
       <c r="F117" t="n">
-        <v>10.79098898519405</v>
+        <v>0.04912338219719549</v>
       </c>
       <c r="G117" t="n">
-        <v>14.5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5.993690276908634</v>
+        <v>0.005229438256328244</v>
       </c>
       <c r="D118" t="n">
-        <v>6.100330299537314</v>
+        <v>0.004629527621200208</v>
       </c>
       <c r="E118" t="n">
-        <v>5.242346379970898</v>
+        <v>0.004744526435058664</v>
       </c>
       <c r="F118" t="n">
-        <v>4.501426548335315</v>
+        <v>0.0065017371125043</v>
       </c>
       <c r="G118" t="n">
-        <v>-24.9</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="119">
@@ -3426,25 +3426,25 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4.807417909612488</v>
+        <v>0.00619121003723808</v>
       </c>
       <c r="D119" t="n">
-        <v>4.841992817539686</v>
+        <v>0.00587135420291127</v>
       </c>
       <c r="E119" t="n">
-        <v>4.253694860876831</v>
+        <v>0.006141694122025771</v>
       </c>
       <c r="F119" t="n">
-        <v>4.215045559844142</v>
+        <v>0.006003089136076251</v>
       </c>
       <c r="G119" t="n">
-        <v>-12.32</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_pg</t>
+          <t>team_season_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.06156545209176789</v>
+        <v>3.803292847503374</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06249662618083671</v>
+        <v>3.882739541160594</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09516358463726882</v>
+        <v>3.74153627311522</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04630229419703104</v>
+        <v>4.723569500674766</v>
       </c>
       <c r="G120" t="n">
-        <v>-24.79</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="121">
@@ -3476,25 +3476,25 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.07048627574943363</v>
+        <v>4.386420631157473</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05097202465623516</v>
+        <v>4.649122807017545</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04570886676149833</v>
+        <v>4.545187292555714</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04736842105263157</v>
+        <v>4.701754385964913</v>
       </c>
       <c r="G121" t="n">
-        <v>-32.8</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_op_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -3503,19 +3503,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.05522742531573203</v>
+        <v>6.631801619433199</v>
       </c>
       <c r="D122" t="n">
-        <v>0.04643866040683807</v>
+        <v>6.742408906882591</v>
       </c>
       <c r="E122" t="n">
-        <v>0.05914374089587741</v>
+        <v>6.862873399715506</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04172886152317064</v>
+        <v>8.13695681511471</v>
       </c>
       <c r="G122" t="n">
-        <v>-24.44</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="123">
@@ -3526,25 +3526,25 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.04656871514713554</v>
+        <v>8.133304356988567</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0468543765871102</v>
+        <v>8.130678046467519</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04738185535429135</v>
+        <v>8.407965860597438</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04912338219719549</v>
+        <v>8.328070175438596</v>
       </c>
       <c r="G123" t="n">
-        <v>5.49</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_conceded_pg</t>
+          <t>team_season_completed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -3553,19 +3553,19 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.803292847503374</v>
+        <v>9.532105263157893</v>
       </c>
       <c r="D124" t="n">
-        <v>3.882739541160594</v>
+        <v>8.902935222672065</v>
       </c>
       <c r="E124" t="n">
-        <v>3.74153627311522</v>
+        <v>7.578378378378377</v>
       </c>
       <c r="F124" t="n">
-        <v>4.723569500674766</v>
+        <v>7.422078272604589</v>
       </c>
       <c r="G124" t="n">
-        <v>24.2</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="125">
@@ -3576,25 +3576,25 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4.386420631157473</v>
+        <v>9.894096728307256</v>
       </c>
       <c r="D125" t="n">
-        <v>4.649122807017545</v>
+        <v>8.669084874348032</v>
       </c>
       <c r="E125" t="n">
-        <v>4.545187292555714</v>
+        <v>7.833712660028449</v>
       </c>
       <c r="F125" t="n">
-        <v>4.701754385964913</v>
+        <v>7.710526315789475</v>
       </c>
       <c r="G125" t="n">
-        <v>7.19</v>
+        <v>-22.07</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_pg</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B126" s="1" t="inlineStr">
@@ -3603,19 +3603,19 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.626538461538462</v>
+        <v>9.243582995951417</v>
       </c>
       <c r="D126" t="n">
-        <v>6.742408906882591</v>
+        <v>9.321659919028338</v>
       </c>
       <c r="E126" t="n">
-        <v>6.862873399715506</v>
+        <v>9.561593172119487</v>
       </c>
       <c r="F126" t="n">
-        <v>8.13695681511471</v>
+        <v>11.26387989203778</v>
       </c>
       <c r="G126" t="n">
-        <v>22.79</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="127">
@@ -3626,25 +3626,25 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8.135156208840419</v>
+        <v>11.3138348875191</v>
       </c>
       <c r="D127" t="n">
-        <v>8.130678046467519</v>
+        <v>11.3814604077762</v>
       </c>
       <c r="E127" t="n">
-        <v>8.407965860597438</v>
+        <v>11.61156946420104</v>
       </c>
       <c r="F127" t="n">
-        <v>8.328070175438596</v>
+        <v>11.52631578947368</v>
       </c>
       <c r="G127" t="n">
-        <v>2.37</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3653,19 +3653,19 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>9.532105263157893</v>
+        <v>0.00274387537641304</v>
       </c>
       <c r="D128" t="n">
-        <v>8.902935222672065</v>
+        <v>0.002280491406148333</v>
       </c>
       <c r="E128" t="n">
-        <v>7.578378378378377</v>
+        <v>0.004432869868167986</v>
       </c>
       <c r="F128" t="n">
-        <v>7.422078272604589</v>
+        <v>0.002151339989587681</v>
       </c>
       <c r="G128" t="n">
-        <v>-22.14</v>
+        <v>-21.59</v>
       </c>
     </row>
     <row r="129">
@@ -3676,25 +3676,25 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9.894096728307256</v>
+        <v>0.003544848996982378</v>
       </c>
       <c r="D129" t="n">
-        <v>8.669084874348032</v>
+        <v>0.003402562032743012</v>
       </c>
       <c r="E129" t="n">
-        <v>7.833712660028449</v>
+        <v>0.003255771681416016</v>
       </c>
       <c r="F129" t="n">
-        <v>7.710526315789475</v>
+        <v>0.005406736349849786</v>
       </c>
       <c r="G129" t="n">
-        <v>-22.07</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3703,19 +3703,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9.243582995951417</v>
+        <v>0.2991497975708503</v>
       </c>
       <c r="D130" t="n">
-        <v>9.321659919028338</v>
+        <v>0.3270377867746288</v>
       </c>
       <c r="E130" t="n">
-        <v>9.561593172119487</v>
+        <v>0.328022759601707</v>
       </c>
       <c r="F130" t="n">
-        <v>11.26387989203778</v>
+        <v>0.23638326585695</v>
       </c>
       <c r="G130" t="n">
-        <v>21.86</v>
+        <v>-20.98</v>
       </c>
     </row>
     <row r="131">
@@ -3726,25 +3726,25 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>11.3138348875191</v>
+        <v>0.2426347400031609</v>
       </c>
       <c r="D131" t="n">
-        <v>11.3814604077762</v>
+        <v>0.2110004741583689</v>
       </c>
       <c r="E131" t="n">
-        <v>11.61156946420104</v>
+        <v>0.1774300616405879</v>
       </c>
       <c r="F131" t="n">
-        <v>11.52631578947368</v>
+        <v>0.2298245614035088</v>
       </c>
       <c r="G131" t="n">
-        <v>1.88</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3753,19 +3753,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2991497975708503</v>
+        <v>0.06453916529480083</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3270377867746288</v>
+        <v>0.05507700850730248</v>
       </c>
       <c r="E132" t="n">
-        <v>0.328022759601707</v>
+        <v>0.06750268410827705</v>
       </c>
       <c r="F132" t="n">
-        <v>0.23638326585695</v>
+        <v>0.05139535835701544</v>
       </c>
       <c r="G132" t="n">
-        <v>-20.98</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="133">
@@ -3776,25 +3776,25 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.2426347400031609</v>
+        <v>0.08261757797594357</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2110004741583689</v>
+        <v>0.06250706889100051</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1774300616405879</v>
+        <v>0.06321220891839427</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2298245614035088</v>
+        <v>0.05502837874697879</v>
       </c>
       <c r="G133" t="n">
-        <v>-5.28</v>
+        <v>-33.39</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -3803,19 +3803,19 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.05659101236548889</v>
+        <v>3.22450742240216</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06321697770194575</v>
+        <v>3.371754385964913</v>
       </c>
       <c r="E134" t="n">
-        <v>0.04241008922278357</v>
+        <v>3.084779516358464</v>
       </c>
       <c r="F134" t="n">
-        <v>0.04482171908343509</v>
+        <v>3.859790823211875</v>
       </c>
       <c r="G134" t="n">
-        <v>-20.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="135">
@@ -3826,25 +3826,25 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.05964739147318925</v>
+        <v>2.257915810547389</v>
       </c>
       <c r="D135" t="n">
-        <v>0.04950892436289932</v>
+        <v>2.388193456614509</v>
       </c>
       <c r="E135" t="n">
-        <v>0.04829041282770179</v>
+        <v>2.945898530109056</v>
       </c>
       <c r="F135" t="n">
-        <v>0.04686307953195911</v>
+        <v>3.12280701754386</v>
       </c>
       <c r="G135" t="n">
-        <v>-21.43</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_sp_goals_pg_conceded</t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
@@ -3853,19 +3853,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3.22450742240216</v>
+        <v>0.1970647773279352</v>
       </c>
       <c r="D136" t="n">
-        <v>3.371754385964913</v>
+        <v>0.1854723346828609</v>
       </c>
       <c r="E136" t="n">
-        <v>3.084779516358464</v>
+        <v>0.195448079658606</v>
       </c>
       <c r="F136" t="n">
-        <v>3.859790823211875</v>
+        <v>0.2353306342780026</v>
       </c>
       <c r="G136" t="n">
-        <v>19.7</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="137">
@@ -3876,25 +3876,25 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2.257915810547389</v>
+        <v>0.2788736104525577</v>
       </c>
       <c r="D137" t="n">
-        <v>2.388193456614509</v>
+        <v>0.2594120436225699</v>
       </c>
       <c r="E137" t="n">
-        <v>2.945898530109056</v>
+        <v>0.221289710763395</v>
       </c>
       <c r="F137" t="n">
-        <v>3.12280701754386</v>
+        <v>0.2298245614035088</v>
       </c>
       <c r="G137" t="n">
-        <v>38.3</v>
+        <v>-17.59</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg_conceded</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -3903,19 +3903,19 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.1970647773279352</v>
+        <v>2.611781376518219</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1854723346828609</v>
+        <v>2.579251012145749</v>
       </c>
       <c r="E138" t="n">
-        <v>0.195448079658606</v>
+        <v>2.698719772403983</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2353306342780026</v>
+        <v>3.116396761133603</v>
       </c>
       <c r="G138" t="n">
-        <v>19.42</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="139">
@@ -3926,19 +3926,19 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.2788736104525577</v>
+        <v>3.178728728728728</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2594120436225699</v>
+        <v>3.250782361308677</v>
       </c>
       <c r="E139" t="n">
-        <v>0.221289710763395</v>
+        <v>3.203603603603604</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2298245614035088</v>
+        <v>3.198245614035088</v>
       </c>
       <c r="G139" t="n">
-        <v>-17.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="140">
@@ -4044,7 +4044,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.617044534412956</v>
+        <v>0.6048321429660918</v>
       </c>
       <c r="D144" t="n">
-        <v>2.579251012145749</v>
+        <v>0.6106592772459905</v>
       </c>
       <c r="E144" t="n">
-        <v>2.698719772403983</v>
+        <v>0.696048224168521</v>
       </c>
       <c r="F144" t="n">
-        <v>3.116396761133603</v>
+        <v>0.7196108668033089</v>
       </c>
       <c r="G144" t="n">
-        <v>19.08</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="145">
@@ -4076,25 +4076,25 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.176876876876876</v>
+        <v>0.6877255046487583</v>
       </c>
       <c r="D145" t="n">
-        <v>3.250782361308677</v>
+        <v>0.6562354241413471</v>
       </c>
       <c r="E145" t="n">
-        <v>3.203603603603604</v>
+        <v>0.7658697568671491</v>
       </c>
       <c r="F145" t="n">
-        <v>3.198245614035088</v>
+        <v>0.7952452061109637</v>
       </c>
       <c r="G145" t="n">
-        <v>0.67</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -4103,19 +4103,19 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.6048321593870055</v>
+        <v>-0.05560120273336226</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6106592772459905</v>
+        <v>0.09642829212781127</v>
       </c>
       <c r="E146" t="n">
-        <v>0.696048224168521</v>
+        <v>-0.1472369750784141</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7196108666150837</v>
+        <v>-0.04510212689386769</v>
       </c>
       <c r="G146" t="n">
-        <v>18.98</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="147">
@@ -4126,25 +4126,25 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.6877254910026228</v>
+        <v>-0.09039493012076422</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6562354241413471</v>
+        <v>-0.02045183753932133</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7658697568671491</v>
+        <v>-0.06902768440048253</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7952452056926855</v>
+        <v>-0.092987376699845</v>
       </c>
       <c r="G147" t="n">
-        <v>15.63</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B148" s="1" t="inlineStr">
@@ -4153,19 +4153,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>64.1499257759784</v>
+        <v>-0.1496214831483899</v>
       </c>
       <c r="D148" t="n">
-        <v>69.74803643724697</v>
+        <v>-0.1396838789670438</v>
       </c>
       <c r="E148" t="n">
-        <v>73.1615931721195</v>
+        <v>-0.159389677296749</v>
       </c>
       <c r="F148" t="n">
-        <v>75.95735492577599</v>
+        <v>-0.1216103515718095</v>
       </c>
       <c r="G148" t="n">
-        <v>18.41</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="149">
@@ -4176,25 +4176,25 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>58.70475475475475</v>
+        <v>-0.1268536015877949</v>
       </c>
       <c r="D149" t="n">
-        <v>64.21958274063537</v>
+        <v>-0.07987683501803734</v>
       </c>
       <c r="E149" t="n">
-        <v>65.66804172593646</v>
+        <v>-0.06843356554041315</v>
       </c>
       <c r="F149" t="n">
-        <v>74.46842105263158</v>
+        <v>-0.06885191059949601</v>
       </c>
       <c r="G149" t="n">
-        <v>26.85</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_pg</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B150" s="1" t="inlineStr">
@@ -4203,19 +4203,19 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>17.65349527665317</v>
+        <v>64.1499257759784</v>
       </c>
       <c r="D150" t="n">
-        <v>14.40067476383266</v>
+        <v>69.74803643724697</v>
       </c>
       <c r="E150" t="n">
-        <v>14.81593172119488</v>
+        <v>73.1615931721195</v>
       </c>
       <c r="F150" t="n">
-        <v>14.43961538461538</v>
+        <v>75.95735492577599</v>
       </c>
       <c r="G150" t="n">
-        <v>-18.21</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="151">
@@ -4226,25 +4226,25 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>15.77509878299352</v>
+        <v>58.70475475475475</v>
       </c>
       <c r="D151" t="n">
-        <v>16.59573257467995</v>
+        <v>64.21958274063537</v>
       </c>
       <c r="E151" t="n">
-        <v>14.87719298245614</v>
+        <v>65.66804172593646</v>
       </c>
       <c r="F151" t="n">
-        <v>14.20175438596491</v>
+        <v>74.46842105263158</v>
       </c>
       <c r="G151" t="n">
-        <v>-9.970000000000001</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B152" s="1" t="inlineStr">
@@ -4253,19 +4253,19 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.1754925775978408</v>
+        <v>1.260910036816047</v>
       </c>
       <c r="D152" t="n">
-        <v>0.09798920377867745</v>
+        <v>1.28333636030282</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1590327169274538</v>
+        <v>1.12679423074348</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1442982456140351</v>
+        <v>1.490647572313923</v>
       </c>
       <c r="G152" t="n">
-        <v>-17.78</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="153">
@@ -4276,25 +4276,25 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1236315262631052</v>
+        <v>1.432561501562248</v>
       </c>
       <c r="D153" t="n">
-        <v>0.08449502133712659</v>
+        <v>1.681695000403559</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1195353247984827</v>
+        <v>1.620330657796284</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1052631578947368</v>
+        <v>1.653124844175028</v>
       </c>
       <c r="G153" t="n">
-        <v>-14.86</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_total_dribbles_pg</t>
         </is>
       </c>
       <c r="B154" s="1" t="inlineStr">
@@ -4303,19 +4303,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.06190079933236003</v>
+        <v>17.65349527665317</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06865436946840503</v>
+        <v>14.40067476383266</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0375747205326613</v>
+        <v>14.81593172119488</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0511448379731118</v>
+        <v>14.43961538461538</v>
       </c>
       <c r="G154" t="n">
-        <v>-17.38</v>
+        <v>-18.21</v>
       </c>
     </row>
     <row r="155">
@@ -4326,25 +4326,25 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.05762030689990755</v>
+        <v>15.77509878299352</v>
       </c>
       <c r="D155" t="n">
-        <v>0.04868069688139951</v>
+        <v>16.59573257467995</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0472866322733065</v>
+        <v>14.87719298245614</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04832256401793041</v>
+        <v>14.20175438596491</v>
       </c>
       <c r="G155" t="n">
-        <v>-16.14</v>
+        <v>-9.970000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B156" s="1" t="inlineStr">
@@ -4353,19 +4353,19 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.234419703103913</v>
+        <v>0.1754925775978408</v>
       </c>
       <c r="D156" t="n">
-        <v>1.145040485829959</v>
+        <v>0.09798920377867745</v>
       </c>
       <c r="E156" t="n">
-        <v>1.154765291607397</v>
+        <v>0.1590327169274538</v>
       </c>
       <c r="F156" t="n">
-        <v>1.020053981106613</v>
+        <v>0.1442982456140351</v>
       </c>
       <c r="G156" t="n">
-        <v>-17.37</v>
+        <v>-17.78</v>
       </c>
     </row>
     <row r="157">
@@ -4376,25 +4376,25 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.994602497234076</v>
+        <v>0.1236315262631052</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9773826458036986</v>
+        <v>0.08449502133712659</v>
       </c>
       <c r="E157" t="n">
-        <v>1.002892366050261</v>
+        <v>0.1195353247984827</v>
       </c>
       <c r="F157" t="n">
-        <v>0.956140350877193</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G157" t="n">
-        <v>-3.87</v>
+        <v>-14.86</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B158" s="1" t="inlineStr">
@@ -4403,19 +4403,19 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.03105599900923682</v>
+        <v>1.234419703103913</v>
       </c>
       <c r="D158" t="n">
-        <v>0.02772124220138026</v>
+        <v>1.145040485829959</v>
       </c>
       <c r="E158" t="n">
-        <v>0.02866130357227688</v>
+        <v>1.154765291607397</v>
       </c>
       <c r="F158" t="n">
-        <v>0.03641254975072916</v>
+        <v>1.020053981106613</v>
       </c>
       <c r="G158" t="n">
-        <v>17.25</v>
+        <v>-17.37</v>
       </c>
     </row>
     <row r="159">
@@ -4426,19 +4426,19 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.03490035109226005</v>
+        <v>0.994602497234076</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03462465457712586</v>
+        <v>0.9773826458036986</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03462026943366973</v>
+        <v>1.002892366050261</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03481062033319957</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.26</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="160">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.8340577419524788</v>
+        <v>0.8359095938043307</v>
       </c>
       <c r="D165" t="n">
         <v>0.7093883357041252</v>
@@ -4588,13 +4588,13 @@
         <v>0.7298245614035089</v>
       </c>
       <c r="G165" t="n">
-        <v>-12.5</v>
+        <v>-12.69</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -4603,19 +4603,19 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.06196051807783158</v>
+        <v>3.790411605937922</v>
       </c>
       <c r="D166" t="n">
-        <v>0.05507700850730248</v>
+        <v>3.72966261808367</v>
       </c>
       <c r="E166" t="n">
-        <v>0.06750268410827705</v>
+        <v>3.57226173541963</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05139535835701544</v>
+        <v>3.154561403508772</v>
       </c>
       <c r="G166" t="n">
-        <v>-17.05</v>
+        <v>-16.78</v>
       </c>
     </row>
     <row r="167">
@@ -4626,19 +4626,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.08171979980613181</v>
+        <v>3.296939044307466</v>
       </c>
       <c r="D167" t="n">
-        <v>0.06250706889100051</v>
+        <v>3.208345187292556</v>
       </c>
       <c r="E167" t="n">
-        <v>0.06321220891839427</v>
+        <v>3.025604551920341</v>
       </c>
       <c r="F167" t="n">
-        <v>0.05502837874697879</v>
+        <v>3.152631578947368</v>
       </c>
       <c r="G167" t="n">
-        <v>-32.66</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="168">
@@ -4744,7 +4744,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
@@ -4753,19 +4753,19 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.785411605937921</v>
+        <v>2.489385964912281</v>
       </c>
       <c r="D172" t="n">
-        <v>3.72966261808367</v>
+        <v>2.462327935222672</v>
       </c>
       <c r="E172" t="n">
-        <v>3.57226173541963</v>
+        <v>2.32873399715505</v>
       </c>
       <c r="F172" t="n">
-        <v>3.154561403508772</v>
+        <v>2.891309041835358</v>
       </c>
       <c r="G172" t="n">
-        <v>-16.67</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="173">
@@ -4776,25 +4776,25 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.298693430272378</v>
+        <v>2.204038248775091</v>
       </c>
       <c r="D173" t="n">
-        <v>3.208345187292556</v>
+        <v>2.159933617828355</v>
       </c>
       <c r="E173" t="n">
-        <v>3.025604551920341</v>
+        <v>2.176434329065908</v>
       </c>
       <c r="F173" t="n">
-        <v>3.152631578947368</v>
+        <v>2.298245614035088</v>
       </c>
       <c r="G173" t="n">
-        <v>-4.43</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B174" s="1" t="inlineStr">
@@ -4803,19 +4803,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2.489385964912281</v>
+        <v>33.59521592442645</v>
       </c>
       <c r="D174" t="n">
-        <v>2.462327935222672</v>
+        <v>33.75834008097166</v>
       </c>
       <c r="E174" t="n">
-        <v>2.32873399715505</v>
+        <v>35.74267425320058</v>
       </c>
       <c r="F174" t="n">
-        <v>2.891309041835358</v>
+        <v>39.01417678812416</v>
       </c>
       <c r="G174" t="n">
-        <v>16.15</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="175">
@@ -4826,25 +4826,25 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2.204038248775091</v>
+        <v>40.35223117854697</v>
       </c>
       <c r="D175" t="n">
-        <v>2.159933617828355</v>
+        <v>40.34286391654813</v>
       </c>
       <c r="E175" t="n">
-        <v>2.176434329065908</v>
+        <v>40.42555713608345</v>
       </c>
       <c r="F175" t="n">
-        <v>2.298245614035088</v>
+        <v>40.34385964912281</v>
       </c>
       <c r="G175" t="n">
-        <v>4.27</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_corners_pg</t>
         </is>
       </c>
       <c r="B176" s="1" t="inlineStr">
@@ -4853,19 +4853,19 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>33.59521592442645</v>
+        <v>4.803488529014844</v>
       </c>
       <c r="D176" t="n">
-        <v>33.75834008097166</v>
+        <v>5.026929824561404</v>
       </c>
       <c r="E176" t="n">
-        <v>35.74267425320058</v>
+        <v>4.778805120910384</v>
       </c>
       <c r="F176" t="n">
-        <v>39.01417678812416</v>
+        <v>5.564264507422402</v>
       </c>
       <c r="G176" t="n">
-        <v>16.13</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="177">
@@ -4876,25 +4876,25 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>40.35223117854697</v>
+        <v>4.036681418260366</v>
       </c>
       <c r="D177" t="n">
-        <v>40.34286391654813</v>
+        <v>4.258274063537222</v>
       </c>
       <c r="E177" t="n">
-        <v>40.42555713608345</v>
+        <v>4.198672356567093</v>
       </c>
       <c r="F177" t="n">
-        <v>40.34385964912281</v>
+        <v>4.419298245614034</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.02</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_conceded_pg</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -4903,19 +4903,19 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.2190948247486177</v>
+        <v>0.9264372469635628</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1923597344698249</v>
+        <v>0.8384278002699055</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1947266029281433</v>
+        <v>0.882788051209104</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2541034555716337</v>
+        <v>1.070141700404858</v>
       </c>
       <c r="G178" t="n">
-        <v>15.98</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="179">
@@ -4926,25 +4926,25 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.2762830825202239</v>
+        <v>1.290803961856593</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2558167033334209</v>
+        <v>1.242342342342342</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2512325694902869</v>
+        <v>1.314366998577525</v>
       </c>
       <c r="F179" t="n">
-        <v>0.2492873114051722</v>
+        <v>1.28421052631579</v>
       </c>
       <c r="G179" t="n">
-        <v>-9.77</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_pg</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
@@ -4953,19 +4953,19 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4.803488529014844</v>
+        <v>15.91852226720648</v>
       </c>
       <c r="D180" t="n">
-        <v>5.026929824561404</v>
+        <v>13.49228744939271</v>
       </c>
       <c r="E180" t="n">
-        <v>4.778805120910384</v>
+        <v>14.49544807965861</v>
       </c>
       <c r="F180" t="n">
-        <v>5.564264507422402</v>
+        <v>13.52446018893387</v>
       </c>
       <c r="G180" t="n">
-        <v>15.84</v>
+        <v>-15.04</v>
       </c>
     </row>
     <row r="181">
@@ -4976,25 +4976,25 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4.036681418260366</v>
+        <v>16.23910226015489</v>
       </c>
       <c r="D181" t="n">
-        <v>4.258274063537222</v>
+        <v>15.48022759601707</v>
       </c>
       <c r="E181" t="n">
-        <v>4.198672356567093</v>
+        <v>14.86040777619725</v>
       </c>
       <c r="F181" t="n">
-        <v>4.419298245614034</v>
+        <v>14.7280701754386</v>
       </c>
       <c r="G181" t="n">
-        <v>9.48</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_corner_shot_ratio</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
@@ -5003,19 +5003,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.9264372469635628</v>
+        <v>0.3869904927044872</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8384278002699055</v>
+        <v>0.4087194463184513</v>
       </c>
       <c r="E182" t="n">
-        <v>0.882788051209104</v>
+        <v>0.4304317296782395</v>
       </c>
       <c r="F182" t="n">
-        <v>1.070141700404858</v>
+        <v>0.4447449902988982</v>
       </c>
       <c r="G182" t="n">
-        <v>15.51</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="183">
@@ -5026,25 +5026,25 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.290803961856593</v>
+        <v>0.3584426300441341</v>
       </c>
       <c r="D183" t="n">
-        <v>1.242342342342342</v>
+        <v>0.3851402809853095</v>
       </c>
       <c r="E183" t="n">
-        <v>1.314366998577525</v>
+        <v>0.3899785537413913</v>
       </c>
       <c r="F183" t="n">
-        <v>1.28421052631579</v>
+        <v>0.3945884510054121</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.51</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_sp_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -5053,19 +5053,19 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>15.91852226720648</v>
+        <v>0.2216412266861903</v>
       </c>
       <c r="D184" t="n">
-        <v>13.49228744939271</v>
+        <v>0.1923597344698249</v>
       </c>
       <c r="E184" t="n">
-        <v>14.49544807965861</v>
+        <v>0.1947266029281433</v>
       </c>
       <c r="F184" t="n">
-        <v>13.52446018893387</v>
+        <v>0.254103455257925</v>
       </c>
       <c r="G184" t="n">
-        <v>-15.04</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="185">
@@ -5076,25 +5076,25 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>16.23910226015489</v>
+        <v>0.2762173171491528</v>
       </c>
       <c r="D185" t="n">
-        <v>15.48022759601707</v>
+        <v>0.2558167033334209</v>
       </c>
       <c r="E185" t="n">
-        <v>14.86040777619725</v>
+        <v>0.2512325694902869</v>
       </c>
       <c r="F185" t="n">
-        <v>14.7280701754386</v>
+        <v>0.2492873114051722</v>
       </c>
       <c r="G185" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
@@ -5103,19 +5103,19 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.3869904927044872</v>
+        <v>0.8590897553414107</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4087194463184513</v>
+        <v>0.7900890802792631</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4304317296782395</v>
+        <v>0.7860892026694452</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4447449902988982</v>
+        <v>0.9843507775188737</v>
       </c>
       <c r="G186" t="n">
-        <v>14.92</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="187">
@@ -5126,25 +5126,25 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.3584426300441341</v>
+        <v>1.075097194572405</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3851402809853095</v>
+        <v>1.087084305786557</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3899785537413913</v>
+        <v>1.097576029749208</v>
       </c>
       <c r="F187" t="n">
-        <v>0.3945884510054121</v>
+        <v>1.067911184579134</v>
       </c>
       <c r="G187" t="n">
-        <v>10.08</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B188" s="1" t="inlineStr">
@@ -5153,19 +5153,19 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.006749851794925392</v>
+        <v>0.6374485200821006</v>
       </c>
       <c r="D188" t="n">
-        <v>0.007887360278845181</v>
+        <v>0.5977293458969587</v>
       </c>
       <c r="E188" t="n">
-        <v>0.007902186292780508</v>
+        <v>0.5913626044204361</v>
       </c>
       <c r="F188" t="n">
-        <v>0.005773230819433831</v>
+        <v>0.7301967409400925</v>
       </c>
       <c r="G188" t="n">
-        <v>-14.47</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="189">
@@ -5176,25 +5176,25 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.005528693327772744</v>
+        <v>0.7988713747631383</v>
       </c>
       <c r="D189" t="n">
-        <v>0.004878127662815072</v>
+        <v>0.8312676044235747</v>
       </c>
       <c r="E189" t="n">
-        <v>0.004327023204862233</v>
+        <v>0.846343460969005</v>
       </c>
       <c r="F189" t="n">
-        <v>0.005597597767562935</v>
+        <v>0.8186238711217843</v>
       </c>
       <c r="G189" t="n">
-        <v>1.25</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B190" s="1" t="inlineStr">
@@ -5203,19 +5203,19 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.1860188933873144</v>
+        <v>0.006749851794925392</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2075775978407557</v>
+        <v>0.007887360278845181</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1743954480796586</v>
+        <v>0.007902186292780508</v>
       </c>
       <c r="F190" t="n">
-        <v>0.15917004048583</v>
+        <v>0.005773230819433831</v>
       </c>
       <c r="G190" t="n">
-        <v>-14.43</v>
+        <v>-14.47</v>
       </c>
     </row>
     <row r="191">
@@ -5226,25 +5226,25 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.1272403982930299</v>
+        <v>0.005528693327772744</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1249407302038881</v>
+        <v>0.004878127662815072</v>
       </c>
       <c r="E191" t="n">
-        <v>0.09663347558084398</v>
+        <v>0.004327023204862233</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1491228070175439</v>
+        <v>0.005597597767562935</v>
       </c>
       <c r="G191" t="n">
-        <v>17.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
@@ -5253,19 +5253,19 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>366.2219770580297</v>
+        <v>0.1860188933873144</v>
       </c>
       <c r="D192" t="n">
-        <v>379.5404183535763</v>
+        <v>0.2075775978407557</v>
       </c>
       <c r="E192" t="n">
-        <v>405.1524893314368</v>
+        <v>0.1743954480796586</v>
       </c>
       <c r="F192" t="n">
-        <v>416.1195614035088</v>
+        <v>0.15917004048583</v>
       </c>
       <c r="G192" t="n">
-        <v>13.62</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="193">
@@ -5276,25 +5276,25 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>424.548506401138</v>
+        <v>0.1272403982930299</v>
       </c>
       <c r="D193" t="n">
-        <v>427.0165955429113</v>
+        <v>0.1249407302038881</v>
       </c>
       <c r="E193" t="n">
-        <v>436.8374585111427</v>
+        <v>0.09663347558084398</v>
       </c>
       <c r="F193" t="n">
-        <v>444.9877192982457</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="G193" t="n">
-        <v>4.81</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B194" s="1" t="inlineStr">
@@ -5303,19 +5303,19 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.003976574505210861</v>
+        <v>366.2219770580297</v>
       </c>
       <c r="D194" t="n">
-        <v>0.004965984035224915</v>
+        <v>379.5404183535763</v>
       </c>
       <c r="E194" t="n">
-        <v>0.006595263050895256</v>
+        <v>405.1524893314368</v>
       </c>
       <c r="F194" t="n">
-        <v>0.003441561859945046</v>
+        <v>416.1195614035088</v>
       </c>
       <c r="G194" t="n">
-        <v>-13.45</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="195">
@@ -5326,25 +5326,25 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.00427950738209854</v>
+        <v>424.548506401138</v>
       </c>
       <c r="D195" t="n">
-        <v>0.003344740631704283</v>
+        <v>427.0165955429113</v>
       </c>
       <c r="E195" t="n">
-        <v>0.003091218263777736</v>
+        <v>436.8374585111427</v>
       </c>
       <c r="F195" t="n">
-        <v>0.003248430653671845</v>
+        <v>444.9877192982457</v>
       </c>
       <c r="G195" t="n">
-        <v>-24.09</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_dribble_ratio</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B196" s="1" t="inlineStr">
@@ -5353,19 +5353,19 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.60087472</v>
+        <v>0.003976574505210861</v>
       </c>
       <c r="D196" t="n">
-        <v>0.551369378</v>
+        <v>0.004965984035224915</v>
       </c>
       <c r="E196" t="n">
-        <v>0.52158254</v>
+        <v>0.006595263050895256</v>
       </c>
       <c r="F196" t="n">
-        <v>0.52258275</v>
+        <v>0.003441561859945046</v>
       </c>
       <c r="G196" t="n">
-        <v>-13.03</v>
+        <v>-13.45</v>
       </c>
     </row>
     <row r="197">
@@ -5376,25 +5376,25 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.6037995993333333</v>
+        <v>0.00427950738209854</v>
       </c>
       <c r="D197" t="n">
-        <v>0.542547972</v>
+        <v>0.003344740631704283</v>
       </c>
       <c r="E197" t="n">
-        <v>0.5222464353333334</v>
+        <v>0.003091218263777736</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5409745653333334</v>
+        <v>0.003248430653671845</v>
       </c>
       <c r="G197" t="n">
-        <v>-10.4</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_opposition_dribble_ratio</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -5403,19 +5403,19 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.8745857255163825</v>
+        <v>0.60087472</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7900890802792631</v>
+        <v>0.551369378</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7860892026694452</v>
+        <v>0.52158254</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9843507775188737</v>
+        <v>0.52258275</v>
       </c>
       <c r="G198" t="n">
-        <v>12.55</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="199">
@@ -5426,25 +5426,25 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.11522262273977</v>
+        <v>0.6037995993333333</v>
       </c>
       <c r="D199" t="n">
-        <v>1.087084305786557</v>
+        <v>0.542547972</v>
       </c>
       <c r="E199" t="n">
-        <v>1.097576029749208</v>
+        <v>0.5222464353333334</v>
       </c>
       <c r="F199" t="n">
-        <v>1.067911184369995</v>
+        <v>0.5409745653333334</v>
       </c>
       <c r="G199" t="n">
-        <v>-4.24</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_action_regains_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B200" s="1" t="inlineStr">
@@ -5453,19 +5453,19 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>48.64406882591094</v>
+        <v>0.03245535250822122</v>
       </c>
       <c r="D200" t="n">
-        <v>49.87765856950067</v>
+        <v>0.02772124220138026</v>
       </c>
       <c r="E200" t="n">
-        <v>48.98406827880512</v>
+        <v>0.02866130357227688</v>
       </c>
       <c r="F200" t="n">
-        <v>54.34314439946019</v>
+        <v>0.036412549911055</v>
       </c>
       <c r="G200" t="n">
-        <v>11.72</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="201">
@@ -5476,25 +5476,25 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>50.26578420525789</v>
+        <v>0.03611145620023859</v>
       </c>
       <c r="D201" t="n">
-        <v>51.95410146989094</v>
+        <v>0.03462465457712586</v>
       </c>
       <c r="E201" t="n">
-        <v>51.20616405879564</v>
+        <v>0.03462026943366973</v>
       </c>
       <c r="F201" t="n">
-        <v>53.10526315789473</v>
+        <v>0.03481061951156297</v>
       </c>
       <c r="G201" t="n">
-        <v>5.65</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_final_third_pass_ratio</t>
+          <t>team_season_defensive_action_regains_pg</t>
         </is>
       </c>
       <c r="B202" s="1" t="inlineStr">
@@ -5503,19 +5503,19 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.5741658363738699</v>
+        <v>48.64406882591094</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5849607651107553</v>
+        <v>49.87765856950067</v>
       </c>
       <c r="E202" t="n">
-        <v>0.6057093829313427</v>
+        <v>48.98406827880512</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6405549335274212</v>
+        <v>54.34314439946019</v>
       </c>
       <c r="G202" t="n">
-        <v>11.56</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="203">
@@ -5526,25 +5526,25 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.6066945671387426</v>
+        <v>50.26578420525789</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6178172313999398</v>
+        <v>51.95410146989094</v>
       </c>
       <c r="E203" t="n">
-        <v>0.6279787811215507</v>
+        <v>51.20616405879564</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6331820987864911</v>
+        <v>53.10526315789473</v>
       </c>
       <c r="G203" t="n">
-        <v>4.37</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_pg</t>
+          <t>team_season_opp_final_third_pass_ratio</t>
         </is>
       </c>
       <c r="B204" s="1" t="inlineStr">
@@ -5553,19 +5553,19 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2.198839406207827</v>
+        <v>0.5741658363738699</v>
       </c>
       <c r="D204" t="n">
-        <v>2.224331983805668</v>
+        <v>0.5849607651107553</v>
       </c>
       <c r="E204" t="n">
-        <v>1.984779516358464</v>
+        <v>0.6057093829313427</v>
       </c>
       <c r="F204" t="n">
-        <v>2.45025641025641</v>
+        <v>0.6405549335274212</v>
       </c>
       <c r="G204" t="n">
-        <v>11.43</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="205">
@@ -5576,25 +5576,25 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.356282598387861</v>
+        <v>0.6066945671387426</v>
       </c>
       <c r="D205" t="n">
-        <v>1.572925557136083</v>
+        <v>0.6178172313999398</v>
       </c>
       <c r="E205" t="n">
-        <v>1.938501659554291</v>
+        <v>0.6279787811215507</v>
       </c>
       <c r="F205" t="n">
-        <v>2.045614035087719</v>
+        <v>0.6331820987864911</v>
       </c>
       <c r="G205" t="n">
-        <v>50.83</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_passes_inside_box_pg</t>
         </is>
       </c>
       <c r="B206" s="1" t="inlineStr">
@@ -5603,19 +5603,19 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.6554909007488303</v>
+        <v>2.198839406207827</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5977293458969587</v>
+        <v>2.224331983805668</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5913626044204361</v>
+        <v>1.984779516358464</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7301967409400925</v>
+        <v>2.45025641025641</v>
       </c>
       <c r="G206" t="n">
-        <v>11.4</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="207">
@@ -5626,25 +5626,25 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.8389146579003712</v>
+        <v>1.356282598387861</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8312676044235747</v>
+        <v>1.572925557136083</v>
       </c>
       <c r="E207" t="n">
-        <v>0.846343460969005</v>
+        <v>1.938501659554291</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8186238709126451</v>
+        <v>2.045614035087719</v>
       </c>
       <c r="G207" t="n">
-        <v>-2.42</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B208" s="1" t="inlineStr">
@@ -5653,19 +5653,19 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.03393778966706019</v>
+        <v>418.9683940620783</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03613222334362541</v>
+        <v>432.2491767881241</v>
       </c>
       <c r="E208" t="n">
-        <v>0.03486690188110606</v>
+        <v>456.5883357041251</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03775138491182302</v>
+        <v>465.4391565452092</v>
       </c>
       <c r="G208" t="n">
-        <v>11.24</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="209">
@@ -5676,25 +5676,25 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.0341935198869484</v>
+        <v>478.2865497076023</v>
       </c>
       <c r="D209" t="n">
-        <v>0.03166291025382578</v>
+        <v>479.6787577050735</v>
       </c>
       <c r="E209" t="n">
-        <v>0.03310826523085147</v>
+        <v>486.4633475580844</v>
       </c>
       <c r="F209" t="n">
-        <v>0.03434313436275037</v>
+        <v>495.1736842105263</v>
       </c>
       <c r="G209" t="n">
-        <v>0.44</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
@@ -5703,19 +5703,19 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>418.9683940620783</v>
+        <v>2.852503373819163</v>
       </c>
       <c r="D210" t="n">
-        <v>432.2491767881241</v>
+        <v>3.083286099865048</v>
       </c>
       <c r="E210" t="n">
-        <v>456.5883357041251</v>
+        <v>3.002702702702702</v>
       </c>
       <c r="F210" t="n">
-        <v>465.4391565452092</v>
+        <v>3.162159244264507</v>
       </c>
       <c r="G210" t="n">
-        <v>11.09</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="211">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>478.2865497076023</v>
+        <v>3.61245192560982</v>
       </c>
       <c r="D211" t="n">
-        <v>479.6787577050735</v>
+        <v>3.427121858700806</v>
       </c>
       <c r="E211" t="n">
-        <v>486.4633475580844</v>
+        <v>3.215599810336653</v>
       </c>
       <c r="F211" t="n">
-        <v>495.1736842105263</v>
+        <v>3.149122807017544</v>
       </c>
       <c r="G211" t="n">
-        <v>3.53</v>
+        <v>-12.83</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_shots_in_clear_conceded_pg</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5753,19 +5753,19 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2.847240215924426</v>
+        <v>1.881302294197031</v>
       </c>
       <c r="D212" t="n">
-        <v>3.083286099865048</v>
+        <v>1.631322537112011</v>
       </c>
       <c r="E212" t="n">
-        <v>3.002702702702702</v>
+        <v>1.618918918918919</v>
       </c>
       <c r="F212" t="n">
-        <v>3.162159244264507</v>
+        <v>2.082894736842105</v>
       </c>
       <c r="G212" t="n">
-        <v>11.06</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="213">
@@ -5776,25 +5776,25 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3.614303777461672</v>
+        <v>2.286001791264949</v>
       </c>
       <c r="D213" t="n">
-        <v>3.427121858700806</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E213" t="n">
-        <v>3.215599810336653</v>
+        <v>2.155144618302513</v>
       </c>
       <c r="F213" t="n">
-        <v>3.149122807017544</v>
+        <v>2.064912280701754</v>
       </c>
       <c r="G213" t="n">
-        <v>-12.87</v>
+        <v>-9.67</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_conceded_pg</t>
+          <t>team_season_total_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.881302294197031</v>
+        <v>15.85306342780027</v>
       </c>
       <c r="D214" t="n">
-        <v>1.631322537112011</v>
+        <v>16.15016194331984</v>
       </c>
       <c r="E214" t="n">
-        <v>1.618918918918919</v>
+        <v>14.54736842105263</v>
       </c>
       <c r="F214" t="n">
-        <v>2.082894736842105</v>
+        <v>14.2104318488529</v>
       </c>
       <c r="G214" t="n">
-        <v>10.72</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="215">
@@ -5826,25 +5826,25 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2.286001791264949</v>
+        <v>16.3842368684474</v>
       </c>
       <c r="D215" t="n">
-        <v>2.166666666666667</v>
+        <v>15.98345187292556</v>
       </c>
       <c r="E215" t="n">
-        <v>2.155144618302513</v>
+        <v>14.96761498340446</v>
       </c>
       <c r="F215" t="n">
-        <v>2.064912280701754</v>
+        <v>14.27368421052632</v>
       </c>
       <c r="G215" t="n">
-        <v>-9.67</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_conceded_pg</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B216" s="1" t="inlineStr">
@@ -5853,19 +5853,19 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>15.85306342780027</v>
+        <v>0.0775423315979033</v>
       </c>
       <c r="D216" t="n">
-        <v>16.15016194331984</v>
+        <v>0.0770463198182994</v>
       </c>
       <c r="E216" t="n">
-        <v>14.54736842105263</v>
+        <v>0.08686355167631903</v>
       </c>
       <c r="F216" t="n">
-        <v>14.2104318488529</v>
+        <v>0.08550463340027795</v>
       </c>
       <c r="G216" t="n">
-        <v>-10.36</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="217">
@@ -5876,25 +5876,25 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>16.3842368684474</v>
+        <v>0.06592481107652368</v>
       </c>
       <c r="D217" t="n">
-        <v>15.98345187292556</v>
+        <v>0.06982046082675625</v>
       </c>
       <c r="E217" t="n">
-        <v>14.96761498340446</v>
+        <v>0.07116274208488624</v>
       </c>
       <c r="F217" t="n">
-        <v>14.27368421052632</v>
+        <v>0.07474620684789629</v>
       </c>
       <c r="G217" t="n">
-        <v>-12.88</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
@@ -5903,19 +5903,19 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.07766074486018866</v>
+        <v>40.22034344566148</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0770463198182994</v>
+        <v>41.91080498115398</v>
       </c>
       <c r="E218" t="n">
-        <v>0.08686355167631903</v>
+        <v>36.87284172661865</v>
       </c>
       <c r="F218" t="n">
-        <v>0.08550463340027795</v>
+        <v>36.44759532802716</v>
       </c>
       <c r="G218" t="n">
-        <v>10.1</v>
+        <v>-9.380000000000001</v>
       </c>
     </row>
     <row r="219">
@@ -5926,25 +5926,25 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.06588486699823329</v>
+        <v>45.86493944513704</v>
       </c>
       <c r="D219" t="n">
-        <v>0.06982046082675625</v>
+        <v>44.01364684220865</v>
       </c>
       <c r="E219" t="n">
-        <v>0.07116274208488624</v>
+        <v>40.6674939479423</v>
       </c>
       <c r="F219" t="n">
-        <v>0.07474620684789629</v>
+        <v>40.5154952674289</v>
       </c>
       <c r="G219" t="n">
-        <v>13.45</v>
+        <v>-11.66</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B220" s="1" t="inlineStr">
@@ -5953,19 +5953,19 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.04486939925248</v>
+        <v>0.03457483330675039</v>
       </c>
       <c r="D220" t="n">
-        <v>0.926357734063477</v>
+        <v>0.03613222334362541</v>
       </c>
       <c r="E220" t="n">
-        <v>0.8204841884311452</v>
+        <v>0.03486690188110606</v>
       </c>
       <c r="F220" t="n">
-        <v>0.9466475749652778</v>
+        <v>0.03775138788165746</v>
       </c>
       <c r="G220" t="n">
-        <v>-9.4</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="221">
@@ -5976,25 +5976,25 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.7042222842326556</v>
+        <v>0.03553380516313157</v>
       </c>
       <c r="D221" t="n">
-        <v>0.719339235021961</v>
+        <v>0.03166291025382578</v>
       </c>
       <c r="E221" t="n">
-        <v>0.7699822305374453</v>
+        <v>0.03310826523085147</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7449034763099789</v>
+        <v>0.03434313588119599</v>
       </c>
       <c r="G221" t="n">
-        <v>5.78</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_obv_pg</t>
         </is>
       </c>
       <c r="B222" s="1" t="inlineStr">
@@ -6003,19 +6003,19 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>40.2203447151383</v>
+        <v>1.728784713220396</v>
       </c>
       <c r="D222" t="n">
-        <v>41.91080498115398</v>
+        <v>1.819633297045664</v>
       </c>
       <c r="E222" t="n">
-        <v>36.87284172661865</v>
+        <v>1.540582890246079</v>
       </c>
       <c r="F222" t="n">
-        <v>36.44759439589082</v>
+        <v>1.885457755767624</v>
       </c>
       <c r="G222" t="n">
-        <v>-9.380000000000001</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="223">
@@ -6026,19 +6026,19 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>45.86493617617273</v>
+        <v>1.268178932413931</v>
       </c>
       <c r="D223" t="n">
-        <v>44.01364684220865</v>
+        <v>1.497479018401717</v>
       </c>
       <c r="E223" t="n">
-        <v>40.6674939479423</v>
+        <v>1.483417671981885</v>
       </c>
       <c r="F223" t="n">
-        <v>40.51549468379165</v>
+        <v>1.519716560504023</v>
       </c>
       <c r="G223" t="n">
-        <v>-11.66</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="224">
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.6439765000615305</v>
+        <v>0.6439764828692403</v>
       </c>
       <c r="D224" t="n">
         <v>0.5682314426708193</v>
@@ -6062,7 +6062,7 @@
         <v>0.5396174499694826</v>
       </c>
       <c r="F224" t="n">
-        <v>0.7022410764334053</v>
+        <v>0.7022410791940414</v>
       </c>
       <c r="G224" t="n">
         <v>9.050000000000001</v>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.7549608884806142</v>
+        <v>0.7549609260149992</v>
       </c>
       <c r="D225" t="n">
         <v>0.7675023980915768</v>
@@ -6085,7 +6085,7 @@
         <v>0.7464119109833386</v>
       </c>
       <c r="F225" t="n">
-        <v>0.690954163409116</v>
+        <v>0.6909541627294139</v>
       </c>
       <c r="G225" t="n">
         <v>-8.48</v>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15.62229893695309</v>
+        <v>15.61458176542862</v>
       </c>
       <c r="D228" t="n">
         <v>14.5469123781394</v>
@@ -6162,10 +6162,10 @@
         <v>15.17877120050878</v>
       </c>
       <c r="F228" t="n">
-        <v>14.21193151524858</v>
+        <v>14.21193193022227</v>
       </c>
       <c r="G228" t="n">
-        <v>-9.029999999999999</v>
+        <v>-8.98</v>
       </c>
     </row>
     <row r="229">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>15.3689486869132</v>
+        <v>15.37079256574743</v>
       </c>
       <c r="D229" t="n">
         <v>15.60732250012961</v>
@@ -6185,10 +6185,10 @@
         <v>15.49013576072277</v>
       </c>
       <c r="F229" t="n">
-        <v>15.21515511230803</v>
+        <v>15.21515566653558</v>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="230">
@@ -6244,7 +6244,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B232" s="1" t="inlineStr">
@@ -6253,19 +6253,19 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.371536236183464</v>
+        <v>21.99517543859649</v>
       </c>
       <c r="D232" t="n">
-        <v>1.28333636030282</v>
+        <v>23.61336707152497</v>
       </c>
       <c r="E232" t="n">
-        <v>1.12679423074348</v>
+        <v>23.40554765291608</v>
       </c>
       <c r="F232" t="n">
-        <v>1.490647574352225</v>
+        <v>23.88139001349527</v>
       </c>
       <c r="G232" t="n">
-        <v>8.68</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="233">
@@ -6276,25 +6276,25 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.57729426703172</v>
+        <v>19.70364838522733</v>
       </c>
       <c r="D233" t="n">
-        <v>1.681695000403559</v>
+        <v>22.30711237553343</v>
       </c>
       <c r="E233" t="n">
-        <v>1.620330657796284</v>
+        <v>22.9538169748696</v>
       </c>
       <c r="F233" t="n">
-        <v>1.653124848096386</v>
+        <v>23.42280701754386</v>
       </c>
       <c r="G233" t="n">
-        <v>4.81</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B234" s="1" t="inlineStr">
@@ -6303,19 +6303,19 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.09577620264692199</v>
+        <v>0.7833519973207953</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0848334225557235</v>
+        <v>0.6804818746692145</v>
       </c>
       <c r="E234" t="n">
-        <v>0.08245319742684669</v>
+        <v>0.8065273571481258</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0874990983574801</v>
+        <v>0.850184945731591</v>
       </c>
       <c r="G234" t="n">
-        <v>-8.640000000000001</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -6326,25 +6326,25 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.09883626291051191</v>
+        <v>0.6265216592105444</v>
       </c>
       <c r="D235" t="n">
-        <v>0.09547303011152362</v>
+        <v>0.6325371648467134</v>
       </c>
       <c r="E235" t="n">
-        <v>0.09463718300299523</v>
+        <v>0.7289224473664589</v>
       </c>
       <c r="F235" t="n">
-        <v>0.09235418542419276</v>
+        <v>0.7509760019614509</v>
       </c>
       <c r="G235" t="n">
-        <v>-6.56</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_sp_pg</t>
         </is>
       </c>
       <c r="B236" s="1" t="inlineStr">
@@ -6353,19 +6353,19 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>21.99517543859649</v>
+        <v>44.26551282051282</v>
       </c>
       <c r="D236" t="n">
-        <v>23.61336707152497</v>
+        <v>42.37522267206479</v>
       </c>
       <c r="E236" t="n">
-        <v>23.40554765291608</v>
+        <v>41.27567567567568</v>
       </c>
       <c r="F236" t="n">
-        <v>23.88139001349527</v>
+        <v>40.86126855600538</v>
       </c>
       <c r="G236" t="n">
-        <v>8.58</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="237">
@@ -6376,25 +6376,25 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>19.70364838522733</v>
+        <v>43.95706232548338</v>
       </c>
       <c r="D237" t="n">
-        <v>22.30711237553343</v>
+        <v>43.43124703651019</v>
       </c>
       <c r="E237" t="n">
-        <v>22.9538169748696</v>
+        <v>41.01303935514463</v>
       </c>
       <c r="F237" t="n">
-        <v>23.42280701754386</v>
+        <v>40.97894736842105</v>
       </c>
       <c r="G237" t="n">
-        <v>18.88</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_shots_in_clear_pg</t>
         </is>
       </c>
       <c r="B238" s="1" t="inlineStr">
@@ -6403,19 +6403,19 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.7833519809975635</v>
+        <v>2.643987854251013</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6804818746692145</v>
+        <v>2.394041835357625</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8065273571481258</v>
+        <v>2.085917496443812</v>
       </c>
       <c r="F238" t="n">
-        <v>0.850184943834458</v>
+        <v>2.440796221322537</v>
       </c>
       <c r="G238" t="n">
-        <v>8.529999999999999</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="239">
@@ -6426,25 +6426,25 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.6265216695726992</v>
+        <v>2.023001949317739</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6325371648467134</v>
+        <v>1.906021811284969</v>
       </c>
       <c r="E239" t="n">
-        <v>0.7289224473664589</v>
+        <v>1.999288762446657</v>
       </c>
       <c r="F239" t="n">
-        <v>0.750976003111716</v>
+        <v>1.942105263157895</v>
       </c>
       <c r="G239" t="n">
-        <v>19.86</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_sp_pg_conceded</t>
         </is>
       </c>
       <c r="B240" s="1" t="inlineStr">
@@ -6453,19 +6453,19 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1.336072529871293</v>
+        <v>42.32534412955467</v>
       </c>
       <c r="D240" t="n">
-        <v>1.198259010744682</v>
+        <v>42.09585020242916</v>
       </c>
       <c r="E240" t="n">
-        <v>1.103171941829821</v>
+        <v>41.15149359886202</v>
       </c>
       <c r="F240" t="n">
-        <v>1.225950851900938</v>
+        <v>39.07744264507421</v>
       </c>
       <c r="G240" t="n">
-        <v>-8.24</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="241">
@@ -6476,25 +6476,25 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.9551925499554699</v>
+        <v>44.60957009641219</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9483543925562273</v>
+        <v>43.53352299668089</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9919320352654594</v>
+        <v>41.05405405405404</v>
       </c>
       <c r="F241" t="n">
-        <v>0.9858156737266925</v>
+        <v>41.57543859649124</v>
       </c>
       <c r="G241" t="n">
-        <v>3.21</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg</t>
+          <t>team_season_failed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>44.26551282051282</v>
+        <v>6.320958164642375</v>
       </c>
       <c r="D242" t="n">
-        <v>42.37522267206479</v>
+        <v>7.247226720647774</v>
       </c>
       <c r="E242" t="n">
-        <v>41.27567567567568</v>
+        <v>6.968990042674252</v>
       </c>
       <c r="F242" t="n">
-        <v>40.86126855600538</v>
+        <v>6.788353576248314</v>
       </c>
       <c r="G242" t="n">
-        <v>-7.69</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="243">
@@ -6526,25 +6526,25 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>43.95706232548338</v>
+        <v>6.49014014014014</v>
       </c>
       <c r="D243" t="n">
-        <v>43.43124703651019</v>
+        <v>7.314366998577525</v>
       </c>
       <c r="E243" t="n">
-        <v>41.01303935514463</v>
+        <v>7.133902323376008</v>
       </c>
       <c r="F243" t="n">
-        <v>40.97894736842105</v>
+        <v>6.563157894736842</v>
       </c>
       <c r="G243" t="n">
-        <v>-6.78</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_pg</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B244" s="1" t="inlineStr">
@@ -6553,19 +6553,19 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2.643987854251013</v>
+        <v>7.025755735492578</v>
       </c>
       <c r="D244" t="n">
-        <v>2.394041835357625</v>
+        <v>6.607847503373819</v>
       </c>
       <c r="E244" t="n">
-        <v>2.085917496443812</v>
+        <v>7.432716927453771</v>
       </c>
       <c r="F244" t="n">
-        <v>2.440796221322537</v>
+        <v>6.521363022941971</v>
       </c>
       <c r="G244" t="n">
-        <v>-7.69</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="245">
@@ -6576,25 +6576,25 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2.023001949317739</v>
+        <v>6.252173225857437</v>
       </c>
       <c r="D245" t="n">
-        <v>1.906021811284969</v>
+        <v>7.540635372214319</v>
       </c>
       <c r="E245" t="n">
-        <v>1.999288762446657</v>
+        <v>6.979137031768611</v>
       </c>
       <c r="F245" t="n">
-        <v>1.942105263157895</v>
+        <v>6.656140350877192</v>
       </c>
       <c r="G245" t="n">
-        <v>-4</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg_conceded</t>
+          <t>team_season_sp_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B246" s="1" t="inlineStr">
@@ -6603,19 +6603,19 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>42.32534412955467</v>
+        <v>15.6211817499231</v>
       </c>
       <c r="D246" t="n">
-        <v>42.09585020242916</v>
+        <v>15.21794609009905</v>
       </c>
       <c r="E246" t="n">
-        <v>41.15149359886202</v>
+        <v>15.80275992869056</v>
       </c>
       <c r="F246" t="n">
-        <v>39.07744264507421</v>
+        <v>14.50625656503193</v>
       </c>
       <c r="G246" t="n">
-        <v>-7.67</v>
+        <v>-7.14</v>
       </c>
     </row>
     <row r="247">
@@ -6626,25 +6626,25 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>44.60957009641219</v>
+        <v>15.43398854212646</v>
       </c>
       <c r="D247" t="n">
-        <v>43.53352299668089</v>
+        <v>15.22243710346092</v>
       </c>
       <c r="E247" t="n">
-        <v>41.05405405405404</v>
+        <v>15.32296729059635</v>
       </c>
       <c r="F247" t="n">
-        <v>41.57543859649124</v>
+        <v>15.02167263639094</v>
       </c>
       <c r="G247" t="n">
-        <v>-6.8</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_conceded_pg</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
@@ -6653,19 +6653,19 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6.320958164642375</v>
+        <v>0.0941798731457614</v>
       </c>
       <c r="D248" t="n">
-        <v>7.247226720647774</v>
+        <v>0.0848334225557235</v>
       </c>
       <c r="E248" t="n">
-        <v>6.968990042674252</v>
+        <v>0.08245319742684669</v>
       </c>
       <c r="F248" t="n">
-        <v>6.788353576248314</v>
+        <v>0.08749909829980226</v>
       </c>
       <c r="G248" t="n">
-        <v>7.39</v>
+        <v>-7.09</v>
       </c>
     </row>
     <row r="249">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>6.49014014014014</v>
+        <v>0.09522252266232083</v>
       </c>
       <c r="D249" t="n">
-        <v>7.314366998577525</v>
+        <v>0.09547303011152362</v>
       </c>
       <c r="E249" t="n">
-        <v>7.133902323376008</v>
+        <v>0.09463718300299523</v>
       </c>
       <c r="F249" t="n">
-        <v>6.563157894736842</v>
+        <v>0.09235418672231767</v>
       </c>
       <c r="G249" t="n">
-        <v>1.13</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance_conceded</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B250" s="1" t="inlineStr">
@@ -6703,19 +6703,19 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>15.63739926285487</v>
+        <v>51.8692416</v>
       </c>
       <c r="D250" t="n">
-        <v>15.21794609009905</v>
+        <v>52.7635936</v>
       </c>
       <c r="E250" t="n">
-        <v>15.80275992869056</v>
+        <v>52.368476</v>
       </c>
       <c r="F250" t="n">
-        <v>14.50625698034959</v>
+        <v>55.5100132</v>
       </c>
       <c r="G250" t="n">
-        <v>-7.23</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="251">
@@ -6726,25 +6726,25 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>15.43191850142867</v>
+        <v>51.3419516</v>
       </c>
       <c r="D251" t="n">
-        <v>15.22243710346092</v>
+        <v>51.7257286</v>
       </c>
       <c r="E251" t="n">
-        <v>15.32296729059635</v>
+        <v>52.92756533333333</v>
       </c>
       <c r="F251" t="n">
-        <v>15.02167262057524</v>
+        <v>54.24173953333333</v>
       </c>
       <c r="G251" t="n">
-        <v>-2.66</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B252" s="1" t="inlineStr">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>7.025755735492578</v>
+        <v>2.706578947368421</v>
       </c>
       <c r="D252" t="n">
-        <v>6.607847503373819</v>
+        <v>2.729993252361674</v>
       </c>
       <c r="E252" t="n">
-        <v>7.432716927453771</v>
+        <v>2.364580369843528</v>
       </c>
       <c r="F252" t="n">
-        <v>6.521363022941971</v>
+        <v>2.894568151147098</v>
       </c>
       <c r="G252" t="n">
-        <v>-7.18</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="253">
@@ -6776,25 +6776,25 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6.252173225857437</v>
+        <v>2.115083504557189</v>
       </c>
       <c r="D253" t="n">
-        <v>7.540635372214319</v>
+        <v>2.116548127074443</v>
       </c>
       <c r="E253" t="n">
-        <v>6.979137031768611</v>
+        <v>2.305500237079185</v>
       </c>
       <c r="F253" t="n">
-        <v>6.656140350877192</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="G253" t="n">
-        <v>6.46</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B254" s="1" t="inlineStr">
@@ -6803,19 +6803,19 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>51.8692416</v>
+        <v>0.189399586565269</v>
       </c>
       <c r="D254" t="n">
-        <v>52.7635936</v>
+        <v>0.1992610516322046</v>
       </c>
       <c r="E254" t="n">
-        <v>52.368476</v>
+        <v>0.1999560304047538</v>
       </c>
       <c r="F254" t="n">
-        <v>55.5100132</v>
+        <v>0.202451526659723</v>
       </c>
       <c r="G254" t="n">
-        <v>7.02</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="255">
@@ -6826,25 +6826,25 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>51.3419516</v>
+        <v>0.1730076368325669</v>
       </c>
       <c r="D255" t="n">
-        <v>51.7257286</v>
+        <v>0.1830576700062442</v>
       </c>
       <c r="E255" t="n">
-        <v>52.92756533333333</v>
+        <v>0.1845289319314765</v>
       </c>
       <c r="F255" t="n">
-        <v>54.24173953333333</v>
+        <v>0.1963918778757501</v>
       </c>
       <c r="G255" t="n">
-        <v>5.65</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_throw_ins_pg</t>
         </is>
       </c>
       <c r="B256" s="1" t="inlineStr">
@@ -6853,19 +6853,19 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2.706578947368421</v>
+        <v>22.96386639676113</v>
       </c>
       <c r="D256" t="n">
-        <v>2.729993252361674</v>
+        <v>23.41348178137652</v>
       </c>
       <c r="E256" t="n">
-        <v>2.364580369843528</v>
+        <v>21.4348506401138</v>
       </c>
       <c r="F256" t="n">
-        <v>2.894568151147098</v>
+        <v>21.40319163292848</v>
       </c>
       <c r="G256" t="n">
-        <v>6.95</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="257">
@@ -6876,25 +6876,25 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2.115083504557189</v>
+        <v>23.1235182550972</v>
       </c>
       <c r="D257" t="n">
-        <v>2.116548127074443</v>
+        <v>23.13494547178758</v>
       </c>
       <c r="E257" t="n">
-        <v>2.305500237079185</v>
+        <v>21.49032716927454</v>
       </c>
       <c r="F257" t="n">
-        <v>2.473684210526316</v>
+        <v>21.4</v>
       </c>
       <c r="G257" t="n">
-        <v>16.95</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_np_shot_distance</t>
         </is>
       </c>
       <c r="B258" s="1" t="inlineStr">
@@ -6903,19 +6903,19 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.103967420835041</v>
+        <v>17.11838123913349</v>
       </c>
       <c r="D258" t="n">
-        <v>0.09798854132972043</v>
+        <v>17.01694276372656</v>
       </c>
       <c r="E258" t="n">
-        <v>0.08923902960012699</v>
+        <v>17.14551330328646</v>
       </c>
       <c r="F258" t="n">
-        <v>0.09680065646207209</v>
+        <v>16.02455400641893</v>
       </c>
       <c r="G258" t="n">
-        <v>-6.89</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="259">
@@ -6926,25 +6926,25 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.09491014788861711</v>
+        <v>17.8336928065947</v>
       </c>
       <c r="D259" t="n">
-        <v>0.09092886403635123</v>
+        <v>17.56506528806393</v>
       </c>
       <c r="E259" t="n">
-        <v>0.09303412158678687</v>
+        <v>17.19146074794059</v>
       </c>
       <c r="F259" t="n">
-        <v>0.08913049031385641</v>
+        <v>17.06601538300316</v>
       </c>
       <c r="G259" t="n">
-        <v>-6.09</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B260" s="1" t="inlineStr">
@@ -6953,19 +6953,19 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.189399586565269</v>
+        <v>0.8302589356606417</v>
       </c>
       <c r="D260" t="n">
-        <v>0.1992610516322046</v>
+        <v>0.8443029695672365</v>
       </c>
       <c r="E260" t="n">
-        <v>0.1999560304047538</v>
+        <v>0.7344858645722482</v>
       </c>
       <c r="F260" t="n">
-        <v>0.202451526659723</v>
+        <v>0.7800950102451761</v>
       </c>
       <c r="G260" t="n">
-        <v>6.89</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="261">
@@ -6976,25 +6976,25 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.1730076368325669</v>
+        <v>0.6895345877788451</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1830576700062442</v>
+        <v>0.6735646379856113</v>
       </c>
       <c r="E261" t="n">
-        <v>0.1845289319314765</v>
+        <v>0.6817110416743042</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1963918778757501</v>
+        <v>0.6651126999685769</v>
       </c>
       <c r="G261" t="n">
-        <v>13.52</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_pg</t>
+          <t>team_season_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B262" s="1" t="inlineStr">
@@ -7003,19 +7003,19 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>22.96386639676113</v>
+        <v>22.16360998650474</v>
       </c>
       <c r="D262" t="n">
-        <v>23.41348178137652</v>
+        <v>22.70732793522266</v>
       </c>
       <c r="E262" t="n">
-        <v>21.4348506401138</v>
+        <v>21.44466571834992</v>
       </c>
       <c r="F262" t="n">
-        <v>21.40319163292848</v>
+        <v>20.86201079622132</v>
       </c>
       <c r="G262" t="n">
-        <v>-6.8</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="263">
@@ -7026,25 +7026,25 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>23.1235182550972</v>
+        <v>23.38835677783047</v>
       </c>
       <c r="D263" t="n">
-        <v>23.13494547178758</v>
+        <v>23.37776197249882</v>
       </c>
       <c r="E263" t="n">
-        <v>21.49032716927454</v>
+        <v>21.49155998103367</v>
       </c>
       <c r="F263" t="n">
-        <v>21.4</v>
+        <v>21.57719298245614</v>
       </c>
       <c r="G263" t="n">
-        <v>-7.45</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B264" s="1" t="inlineStr">
@@ -7053,19 +7053,19 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>17.11838077995072</v>
+        <v>195.2752226720648</v>
       </c>
       <c r="D264" t="n">
-        <v>17.01694276372656</v>
+        <v>192.2685222672065</v>
       </c>
       <c r="E264" t="n">
-        <v>17.14551330328646</v>
+        <v>188.1378378378378</v>
       </c>
       <c r="F264" t="n">
-        <v>16.02455456096668</v>
+        <v>184.2335425101215</v>
       </c>
       <c r="G264" t="n">
-        <v>-6.39</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="265">
@@ -7076,25 +7076,25 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>17.83369257485935</v>
+        <v>196.9328618091776</v>
       </c>
       <c r="D265" t="n">
-        <v>17.56506528806393</v>
+        <v>195.5511142721669</v>
       </c>
       <c r="E265" t="n">
-        <v>17.19146074794059</v>
+        <v>192.0846372688478</v>
       </c>
       <c r="F265" t="n">
-        <v>17.06601614407474</v>
+        <v>184.5421052631579</v>
       </c>
       <c r="G265" t="n">
-        <v>-4.3</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B266" s="1" t="inlineStr">
@@ -7103,19 +7103,19 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.8302589478342846</v>
+        <v>0.006490843468963538</v>
       </c>
       <c r="D266" t="n">
-        <v>0.8443029695672365</v>
+        <v>0.006476850575012275</v>
       </c>
       <c r="E266" t="n">
-        <v>0.7344858645722482</v>
+        <v>0.006813656293772013</v>
       </c>
       <c r="F266" t="n">
-        <v>0.7800950092330636</v>
+        <v>0.006856570492675382</v>
       </c>
       <c r="G266" t="n">
-        <v>-6.04</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="267">
@@ -7126,25 +7126,25 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.6895345571980509</v>
+        <v>0.005773455855729417</v>
       </c>
       <c r="D267" t="n">
-        <v>0.6735646379856113</v>
+        <v>0.005286324095655273</v>
       </c>
       <c r="E267" t="n">
-        <v>0.6817110416743042</v>
+        <v>0.005416684621580927</v>
       </c>
       <c r="F267" t="n">
-        <v>0.6651126977595452</v>
+        <v>0.005852236593449104</v>
       </c>
       <c r="G267" t="n">
-        <v>-3.54</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_conceded_pg</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B268" s="1" t="inlineStr">
@@ -7153,19 +7153,19 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>22.16360998650474</v>
+        <v>0.3371845685760699</v>
       </c>
       <c r="D268" t="n">
-        <v>22.70732793522266</v>
+        <v>0.3146670386906131</v>
       </c>
       <c r="E268" t="n">
-        <v>21.44466571834992</v>
+        <v>0.3173393898752391</v>
       </c>
       <c r="F268" t="n">
-        <v>20.86201079622132</v>
+        <v>0.3558684037513123</v>
       </c>
       <c r="G268" t="n">
-        <v>-5.87</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="269">
@@ -7176,25 +7176,25 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>23.38835677783047</v>
+        <v>0.339893431597488</v>
       </c>
       <c r="D269" t="n">
-        <v>23.37776197249882</v>
+        <v>0.3259221362755724</v>
       </c>
       <c r="E269" t="n">
-        <v>21.49155998103367</v>
+        <v>0.3310428482943265</v>
       </c>
       <c r="F269" t="n">
-        <v>21.57719298245614</v>
+        <v>0.3281210081586884</v>
       </c>
       <c r="G269" t="n">
-        <v>-7.74</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B270" s="1" t="inlineStr">
@@ -7203,19 +7203,19 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>195.2752226720648</v>
+        <v>17.67343131012333</v>
       </c>
       <c r="D270" t="n">
-        <v>192.2685222672065</v>
+        <v>17.94825884533642</v>
       </c>
       <c r="E270" t="n">
-        <v>188.1378378378378</v>
+        <v>17.95167166464947</v>
       </c>
       <c r="F270" t="n">
-        <v>184.2335425101215</v>
+        <v>16.70638352021536</v>
       </c>
       <c r="G270" t="n">
-        <v>-5.65</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="271">
@@ -7226,25 +7226,25 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>196.9328618091776</v>
+        <v>18.82274064396475</v>
       </c>
       <c r="D271" t="n">
-        <v>195.5511142721669</v>
+        <v>18.38194562126602</v>
       </c>
       <c r="E271" t="n">
-        <v>192.0846372688478</v>
+        <v>17.8549112113794</v>
       </c>
       <c r="F271" t="n">
-        <v>184.5421052631579</v>
+        <v>17.76363409744819</v>
       </c>
       <c r="G271" t="n">
-        <v>-6.29</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_opp_passing_ratio</t>
         </is>
       </c>
       <c r="B272" s="1" t="inlineStr">
@@ -7253,19 +7253,19 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.3371845685760699</v>
+        <v>0.7536223981371712</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3146670386906131</v>
+        <v>0.7626498666686146</v>
       </c>
       <c r="E272" t="n">
-        <v>0.3173393898752391</v>
+        <v>0.7799827864623883</v>
       </c>
       <c r="F272" t="n">
-        <v>0.3558684037513123</v>
+        <v>0.7948081365895145</v>
       </c>
       <c r="G272" t="n">
-        <v>5.54</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="273">
@@ -7276,25 +7276,25 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.339893431597488</v>
+        <v>0.78167472503358</v>
       </c>
       <c r="D273" t="n">
-        <v>0.3259221362755724</v>
+        <v>0.7883165369442861</v>
       </c>
       <c r="E273" t="n">
-        <v>0.3310428482943265</v>
+        <v>0.7941009991295312</v>
       </c>
       <c r="F273" t="n">
-        <v>0.3281210081586884</v>
+        <v>0.7943918917298828</v>
       </c>
       <c r="G273" t="n">
-        <v>-3.46</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_passing_ratio</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B274" s="1" t="inlineStr">
@@ -7303,19 +7303,19 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.7536223981371712</v>
+        <v>0.0041409658025013</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7626498666686146</v>
+        <v>0.003724205389623976</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7799827864623883</v>
+        <v>0.004387262087370712</v>
       </c>
       <c r="F274" t="n">
-        <v>0.7948081365895145</v>
+        <v>0.003928578658437458</v>
       </c>
       <c r="G274" t="n">
-        <v>5.47</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="275">
@@ -7326,25 +7326,25 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.78167472503358</v>
+        <v>0.005096959453219707</v>
       </c>
       <c r="D275" t="n">
-        <v>0.7883165369442861</v>
+        <v>0.004167442068899712</v>
       </c>
       <c r="E275" t="n">
-        <v>0.7941009991295312</v>
+        <v>0.004368480338237914</v>
       </c>
       <c r="F275" t="n">
-        <v>0.7943918917298828</v>
+        <v>0.003754365756946927</v>
       </c>
       <c r="G275" t="n">
-        <v>1.63</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B276" s="1" t="inlineStr">
@@ -7353,19 +7353,19 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>17.67113432547397</v>
+        <v>0.05387979136073993</v>
       </c>
       <c r="D276" t="n">
-        <v>17.94825884533642</v>
+        <v>0.06865436946840503</v>
       </c>
       <c r="E276" t="n">
-        <v>17.95167166464947</v>
+        <v>0.0375747205326613</v>
       </c>
       <c r="F276" t="n">
-        <v>16.70638249817107</v>
+        <v>0.05114483694982402</v>
       </c>
       <c r="G276" t="n">
-        <v>-5.46</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="277">
@@ -7376,25 +7376,25 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>18.82328940048198</v>
+        <v>0.04593193891023733</v>
       </c>
       <c r="D277" t="n">
-        <v>18.38194562126602</v>
+        <v>0.04868069688139951</v>
       </c>
       <c r="E277" t="n">
-        <v>17.8549112113794</v>
+        <v>0.0472866322733065</v>
       </c>
       <c r="F277" t="n">
-        <v>17.76363449633003</v>
+        <v>0.04832256519065113</v>
       </c>
       <c r="G277" t="n">
-        <v>-5.63</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B278" s="1" t="inlineStr">
@@ -7403,19 +7403,19 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.5524899781406191</v>
+        <v>0.9958352030591483</v>
       </c>
       <c r="D278" t="n">
-        <v>0.550890268323271</v>
+        <v>0.926357734063477</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5209658215928941</v>
+        <v>0.8204841884311452</v>
       </c>
       <c r="F278" t="n">
-        <v>0.5280559633390864</v>
+        <v>0.9466475743378604</v>
       </c>
       <c r="G278" t="n">
-        <v>-4.42</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="279">
@@ -7426,25 +7426,25 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.4819487990369902</v>
+        <v>0.675178209609799</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4826017925326531</v>
+        <v>0.719339235021961</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4930135460442348</v>
+        <v>0.7699822305374453</v>
       </c>
       <c r="F279" t="n">
-        <v>0.4906406770489223</v>
+        <v>0.7449034762054093</v>
       </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressures_pg</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B280" s="1" t="inlineStr">
@@ -7453,19 +7453,19 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>30.95852226720648</v>
+        <v>1.283274900607071</v>
       </c>
       <c r="D280" t="n">
-        <v>32.03044534412955</v>
+        <v>1.198259010744682</v>
       </c>
       <c r="E280" t="n">
-        <v>31.80355618776671</v>
+        <v>1.103171941829821</v>
       </c>
       <c r="F280" t="n">
-        <v>32.28203103913631</v>
+        <v>1.225950852528355</v>
       </c>
       <c r="G280" t="n">
-        <v>4.28</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="281">
@@ -7476,25 +7476,25 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>28.99987355776829</v>
+        <v>0.9282996085262941</v>
       </c>
       <c r="D281" t="n">
-        <v>32.04774774774775</v>
+        <v>0.9483543925562273</v>
       </c>
       <c r="E281" t="n">
-        <v>32.69250829777146</v>
+        <v>0.9919320352654594</v>
       </c>
       <c r="F281" t="n">
-        <v>33.32456140350877</v>
+        <v>0.9858156741449708</v>
       </c>
       <c r="G281" t="n">
-        <v>14.91</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B282" s="1" t="inlineStr">
@@ -7503,19 +7503,19 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.006576151671601642</v>
+        <v>0.552489978140619</v>
       </c>
       <c r="D282" t="n">
-        <v>0.006476850575012275</v>
+        <v>0.550890268323271</v>
       </c>
       <c r="E282" t="n">
-        <v>0.006813656293772013</v>
+        <v>0.5209658215928941</v>
       </c>
       <c r="F282" t="n">
-        <v>0.006856570273262086</v>
+        <v>0.5280559633390866</v>
       </c>
       <c r="G282" t="n">
-        <v>4.26</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="283">
@@ -7526,25 +7526,25 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.005723469128250083</v>
+        <v>0.4819487990369902</v>
       </c>
       <c r="D283" t="n">
-        <v>0.005286324095655273</v>
+        <v>0.4826017925326531</v>
       </c>
       <c r="E283" t="n">
-        <v>0.005416684621580927</v>
+        <v>0.4930135460442348</v>
       </c>
       <c r="F283" t="n">
-        <v>0.005852236837049983</v>
+        <v>0.4906406770489223</v>
       </c>
       <c r="G283" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_counterpressures_pg</t>
         </is>
       </c>
       <c r="B284" s="1" t="inlineStr">
@@ -7553,19 +7553,19 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.7095913393078026</v>
+        <v>30.95852226720648</v>
       </c>
       <c r="D284" t="n">
-        <v>0.7367914450050373</v>
+        <v>32.03044534412955</v>
       </c>
       <c r="E284" t="n">
-        <v>0.7336794958010922</v>
+        <v>31.80355618776671</v>
       </c>
       <c r="F284" t="n">
-        <v>0.7391263603158218</v>
+        <v>32.28203103913631</v>
       </c>
       <c r="G284" t="n">
-        <v>4.16</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="285">
@@ -7576,25 +7576,25 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.6776100493038452</v>
+        <v>28.99987355776829</v>
       </c>
       <c r="D285" t="n">
-        <v>0.6952144699430729</v>
+        <v>32.04774774774775</v>
       </c>
       <c r="E285" t="n">
-        <v>0.7015751483342064</v>
+        <v>32.69250829777146</v>
       </c>
       <c r="F285" t="n">
-        <v>0.7023092481120649</v>
+        <v>33.32456140350877</v>
       </c>
       <c r="G285" t="n">
-        <v>3.65</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B286" s="1" t="inlineStr">
@@ -7603,19 +7603,19 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.2912031364005609</v>
+        <v>0.7095913393078026</v>
       </c>
       <c r="D286" t="n">
-        <v>0.2719012695304702</v>
+        <v>0.7367914450050373</v>
       </c>
       <c r="E286" t="n">
-        <v>0.2826877573876646</v>
+        <v>0.7336794958010922</v>
       </c>
       <c r="F286" t="n">
-        <v>0.2793032772329481</v>
+        <v>0.7391263603158218</v>
       </c>
       <c r="G286" t="n">
-        <v>-4.09</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="287">
@@ -7626,25 +7626,25 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.250944697264898</v>
+        <v>0.6776100493038452</v>
       </c>
       <c r="D287" t="n">
-        <v>0.2290151557447049</v>
+        <v>0.6952144699430729</v>
       </c>
       <c r="E287" t="n">
-        <v>0.2219498038345806</v>
+        <v>0.7015751483342064</v>
       </c>
       <c r="F287" t="n">
-        <v>0.2408953340430008</v>
+        <v>0.7023092481120649</v>
       </c>
       <c r="G287" t="n">
-        <v>-4</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B288" s="1" t="inlineStr">
@@ -7653,19 +7653,19 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1.091445168104208</v>
+        <v>0.04662981144105546</v>
       </c>
       <c r="D288" t="n">
-        <v>1.092835829984166</v>
+        <v>0.06321697770194575</v>
       </c>
       <c r="E288" t="n">
-        <v>1.045751633986928</v>
+        <v>0.04241008922278357</v>
       </c>
       <c r="F288" t="n">
-        <v>1.055526315789474</v>
+        <v>0.04482172076277231</v>
       </c>
       <c r="G288" t="n">
-        <v>-3.29</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="289">
@@ -7676,25 +7676,25 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1.083747106937718</v>
+        <v>0.04938634391679789</v>
       </c>
       <c r="D289" t="n">
-        <v>1.062573224120813</v>
+        <v>0.04950892436289932</v>
       </c>
       <c r="E289" t="n">
-        <v>1.072298283331556</v>
+        <v>0.04829041282770179</v>
       </c>
       <c r="F289" t="n">
-        <v>1.099912179323943</v>
+        <v>0.04686307831179256</v>
       </c>
       <c r="G289" t="n">
-        <v>1.49</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance_conceded</t>
+          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B290" s="1" t="inlineStr">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>17.4424110696646</v>
+        <v>1.091445168104208</v>
       </c>
       <c r="D290" t="n">
-        <v>17.85245527254049</v>
+        <v>1.092835829984166</v>
       </c>
       <c r="E290" t="n">
-        <v>17.92434253189886</v>
+        <v>1.045751633986928</v>
       </c>
       <c r="F290" t="n">
-        <v>16.87384717423341</v>
+        <v>1.055526315789474</v>
       </c>
       <c r="G290" t="n">
-        <v>-3.26</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="291">
@@ -7726,25 +7726,25 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>17.63425782196875</v>
+        <v>1.083747106937718</v>
       </c>
       <c r="D291" t="n">
-        <v>17.27151297495019</v>
+        <v>1.062573224120813</v>
       </c>
       <c r="E291" t="n">
-        <v>16.9968705254353</v>
+        <v>1.072298283331556</v>
       </c>
       <c r="F291" t="n">
-        <v>16.71710245650625</v>
+        <v>1.099912179323943</v>
       </c>
       <c r="G291" t="n">
-        <v>-5.2</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_np_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B292" s="1" t="inlineStr">
@@ -7753,19 +7753,19 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>-0.1256315601091611</v>
+        <v>17.44240997912327</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.1396838789670438</v>
+        <v>17.85245527254049</v>
       </c>
       <c r="E292" t="n">
-        <v>-0.159389677296749</v>
+        <v>17.92434253189886</v>
       </c>
       <c r="F292" t="n">
-        <v>-0.1216103512661446</v>
+        <v>16.87384575661823</v>
       </c>
       <c r="G292" t="n">
-        <v>3.2</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="293">
@@ -7776,19 +7776,19 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>-0.1007492080852853</v>
+        <v>17.63425830700107</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.07987683501803734</v>
+        <v>17.27151297495019</v>
       </c>
       <c r="E293" t="n">
-        <v>-0.06843356554041315</v>
+        <v>16.9968705254353</v>
       </c>
       <c r="F293" t="n">
-        <v>-0.06885191044264169</v>
+        <v>16.71710260174775</v>
       </c>
       <c r="G293" t="n">
-        <v>31.66</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="294">
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>46.35505159508677</v>
+        <v>46.35504874983255</v>
       </c>
       <c r="D294" t="n">
         <v>45.35638489101138</v>
@@ -7812,7 +7812,7 @@
         <v>45.98673087252079</v>
       </c>
       <c r="F294" t="n">
-        <v>44.88455418487872</v>
+        <v>44.88456195388186</v>
       </c>
       <c r="G294" t="n">
         <v>-3.17</v>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>44.59178054690529</v>
+        <v>44.59178178796542</v>
       </c>
       <c r="D295" t="n">
         <v>43.00171569288157</v>
@@ -7835,7 +7835,7 @@
         <v>43.40677234556971</v>
       </c>
       <c r="F295" t="n">
-        <v>44.62175288188079</v>
+        <v>44.62175357685818</v>
       </c>
       <c r="G295" t="n">
         <v>0.07000000000000001</v>
@@ -7844,7 +7844,7 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B296" s="1" t="inlineStr">
@@ -7853,19 +7853,19 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2.736739016048447</v>
+        <v>0.0998189656813208</v>
       </c>
       <c r="D296" t="n">
-        <v>2.65184141881265</v>
+        <v>0.09798854132972043</v>
       </c>
       <c r="E296" t="n">
-        <v>2.565714603908058</v>
+        <v>0.08923902960012699</v>
       </c>
       <c r="F296" t="n">
-        <v>2.655971397742928</v>
+        <v>0.09680065878118085</v>
       </c>
       <c r="G296" t="n">
-        <v>-2.95</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="297">
@@ -7876,25 +7876,25 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2.869734491607161</v>
+        <v>0.09226612013530221</v>
       </c>
       <c r="D297" t="n">
-        <v>2.871442900712341</v>
+        <v>0.09092886403635123</v>
       </c>
       <c r="E297" t="n">
-        <v>2.69485220736334</v>
+        <v>0.09303412158678687</v>
       </c>
       <c r="F297" t="n">
-        <v>2.717345774791397</v>
+        <v>0.08913049188940367</v>
       </c>
       <c r="G297" t="n">
-        <v>-5.31</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressure_regains_pg</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B298" s="1" t="inlineStr">
@@ -7903,19 +7903,19 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3.415472334682862</v>
+        <v>2.738770857503041</v>
       </c>
       <c r="D298" t="n">
-        <v>3.823454790823212</v>
+        <v>2.65184141881265</v>
       </c>
       <c r="E298" t="n">
-        <v>3.662162162162162</v>
+        <v>2.565714603908058</v>
       </c>
       <c r="F298" t="n">
-        <v>3.512968960863698</v>
+        <v>2.655971397742928</v>
       </c>
       <c r="G298" t="n">
-        <v>2.85</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="299">
@@ -7926,25 +7926,25 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3.300597966387441</v>
+        <v>2.869577495799411</v>
       </c>
       <c r="D299" t="n">
-        <v>3.462399241346609</v>
+        <v>2.871442900712341</v>
       </c>
       <c r="E299" t="n">
-        <v>3.521289710763396</v>
+        <v>2.69485220736334</v>
       </c>
       <c r="F299" t="n">
-        <v>3.542105263157894</v>
+        <v>2.717345774791396</v>
       </c>
       <c r="G299" t="n">
-        <v>7.32</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_counterpressure_regains_pg</t>
         </is>
       </c>
       <c r="B300" s="1" t="inlineStr">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.4441287818061602</v>
+        <v>3.415472334682862</v>
       </c>
       <c r="D300" t="n">
-        <v>0.4350846065153859</v>
+        <v>3.823454790823212</v>
       </c>
       <c r="E300" t="n">
-        <v>0.443224966172015</v>
+        <v>3.662162162162162</v>
       </c>
       <c r="F300" t="n">
-        <v>0.4567899147137482</v>
+        <v>3.512968960863698</v>
       </c>
       <c r="G300" t="n">
         <v>2.85</v>
@@ -7976,25 +7976,25 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.4250158023203682</v>
+        <v>3.300597966387441</v>
       </c>
       <c r="D301" t="n">
-        <v>0.4234627973618956</v>
+        <v>3.462399241346609</v>
       </c>
       <c r="E301" t="n">
-        <v>0.4312163966525753</v>
+        <v>3.521289710763396</v>
       </c>
       <c r="F301" t="n">
-        <v>0.4442607925316241</v>
+        <v>3.542105263157894</v>
       </c>
       <c r="G301" t="n">
-        <v>4.53</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B302" s="1" t="inlineStr">
@@ -8003,19 +8003,19 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1.555013495276653</v>
+        <v>0.4441287818061602</v>
       </c>
       <c r="D302" t="n">
-        <v>1.476713900134953</v>
+        <v>0.4350846065153859</v>
       </c>
       <c r="E302" t="n">
-        <v>1.386201991465149</v>
+        <v>0.443224966172015</v>
       </c>
       <c r="F302" t="n">
-        <v>1.511632928475034</v>
+        <v>0.4567899147137482</v>
       </c>
       <c r="G302" t="n">
-        <v>-2.79</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="303">
@@ -8026,25 +8026,25 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.071186976450134</v>
+        <v>0.4250158023203682</v>
       </c>
       <c r="D303" t="n">
-        <v>1.023992413466098</v>
+        <v>0.4234627973618956</v>
       </c>
       <c r="E303" t="n">
-        <v>1.147415836889521</v>
+        <v>0.4312163966525753</v>
       </c>
       <c r="F303" t="n">
-        <v>1.135087719298246</v>
+        <v>0.4442607925316241</v>
       </c>
       <c r="G303" t="n">
-        <v>5.97</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B304" s="1" t="inlineStr">
@@ -8053,19 +8053,19 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>18.17022976758114</v>
+        <v>0.287439701309498</v>
       </c>
       <c r="D304" t="n">
-        <v>18.85510597164794</v>
+        <v>0.2719012695304702</v>
       </c>
       <c r="E304" t="n">
-        <v>18.77555763901573</v>
+        <v>0.2826877573876646</v>
       </c>
       <c r="F304" t="n">
-        <v>17.72822302406508</v>
+        <v>0.2793032772329481</v>
       </c>
       <c r="G304" t="n">
-        <v>-2.43</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="305">
@@ -8076,25 +8076,25 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>18.49542491362741</v>
+        <v>0.2531126699374156</v>
       </c>
       <c r="D305" t="n">
-        <v>18.0609062942218</v>
+        <v>0.2290151557447049</v>
       </c>
       <c r="E305" t="n">
-        <v>17.65415673011742</v>
+        <v>0.2219498038345806</v>
       </c>
       <c r="F305" t="n">
-        <v>17.37566907091193</v>
+        <v>0.2408953338338617</v>
       </c>
       <c r="G305" t="n">
-        <v>-6.05</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B306" s="1" t="inlineStr">
@@ -8103,19 +8103,19 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.8935222672064776</v>
+        <v>1.555013495276653</v>
       </c>
       <c r="D306" t="n">
-        <v>0.8637989203778679</v>
+        <v>1.476713900134953</v>
       </c>
       <c r="E306" t="n">
-        <v>0.8254623044096728</v>
+        <v>1.386201991465149</v>
       </c>
       <c r="F306" t="n">
-        <v>0.9114912280701752</v>
+        <v>1.511632928475034</v>
       </c>
       <c r="G306" t="n">
-        <v>2.01</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="307">
@@ -8126,25 +8126,25 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1.112841789157578</v>
+        <v>1.071186976450134</v>
       </c>
       <c r="D307" t="n">
-        <v>1.073352299668089</v>
+        <v>1.023992413466098</v>
       </c>
       <c r="E307" t="n">
-        <v>1.112233285917497</v>
+        <v>1.147415836889521</v>
       </c>
       <c r="F307" t="n">
-        <v>0.9929824561403506</v>
+        <v>1.135087719298246</v>
       </c>
       <c r="G307" t="n">
-        <v>-10.77</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B308" s="1" t="inlineStr">
@@ -8153,19 +8153,19 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.03157894736842105</v>
+        <v>18.17327509805117</v>
       </c>
       <c r="D308" t="n">
-        <v>0.03104588394062078</v>
+        <v>18.85510597164794</v>
       </c>
       <c r="E308" t="n">
-        <v>0.03186344238975818</v>
+        <v>18.77555763901573</v>
       </c>
       <c r="F308" t="n">
-        <v>0.03104588394062078</v>
+        <v>17.72822191552186</v>
       </c>
       <c r="G308" t="n">
-        <v>-1.69</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="309">
@@ -8176,25 +8176,25 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.04135714662030451</v>
+        <v>18.49500296224831</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0352773826458037</v>
+        <v>18.0609062942218</v>
       </c>
       <c r="E309" t="n">
-        <v>0.02987197724039829</v>
+        <v>17.65415673011742</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02631578947368421</v>
+        <v>17.37566881836244</v>
       </c>
       <c r="G309" t="n">
-        <v>-36.37</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_pg</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B310" s="1" t="inlineStr">
@@ -8203,19 +8203,19 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>9.402881241565449</v>
+        <v>0.8935222672064776</v>
       </c>
       <c r="D310" t="n">
-        <v>8.93448717948718</v>
+        <v>0.8637989203778679</v>
       </c>
       <c r="E310" t="n">
-        <v>8.794879089615931</v>
+        <v>0.8254623044096728</v>
       </c>
       <c r="F310" t="n">
-        <v>9.245128205128205</v>
+        <v>0.9114912280701752</v>
       </c>
       <c r="G310" t="n">
-        <v>-1.68</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="311">
@@ -8226,19 +8226,19 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>7.181768610715979</v>
+        <v>1.112841789157578</v>
       </c>
       <c r="D311" t="n">
-        <v>7.387434803224278</v>
+        <v>1.073352299668089</v>
       </c>
       <c r="E311" t="n">
-        <v>7.763252726410621</v>
+        <v>1.112233285917497</v>
       </c>
       <c r="F311" t="n">
-        <v>7.952631578947368</v>
+        <v>0.9929824561403506</v>
       </c>
       <c r="G311" t="n">
-        <v>10.73</v>
+        <v>-10.77</v>
       </c>
     </row>
     <row r="312">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.433684210526316</v>
+        <v>3.428684210526316</v>
       </c>
       <c r="D312" t="n">
         <v>3.238697705802969</v>
@@ -8265,7 +8265,7 @@
         <v>3.490904183535762</v>
       </c>
       <c r="G312" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="313">
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2.888912596807334</v>
+        <v>2.890666982772246</v>
       </c>
       <c r="D313" t="n">
         <v>3.028828828828829</v>
@@ -8288,13 +8288,13 @@
         <v>3.071929824561404</v>
       </c>
       <c r="G313" t="n">
-        <v>6.34</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_op_shots_pg</t>
         </is>
       </c>
       <c r="B314" s="1" t="inlineStr">
@@ -8303,19 +8303,19 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>419.4097368421053</v>
+        <v>9.407881241565452</v>
       </c>
       <c r="D314" t="n">
-        <v>426.8917408906882</v>
+        <v>8.93448717948718</v>
       </c>
       <c r="E314" t="n">
-        <v>399.4644381223329</v>
+        <v>8.794879089615931</v>
       </c>
       <c r="F314" t="n">
-        <v>426.1030836707152</v>
+        <v>9.245128205128205</v>
       </c>
       <c r="G314" t="n">
-        <v>1.6</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="315">
@@ -8326,25 +8326,25 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>338.9738027501186</v>
+        <v>7.180014224751067</v>
       </c>
       <c r="D315" t="n">
-        <v>345.3349928876244</v>
+        <v>7.387434803224278</v>
       </c>
       <c r="E315" t="n">
-        <v>372.2061640587956</v>
+        <v>7.763252726410621</v>
       </c>
       <c r="F315" t="n">
-        <v>374.8859649122808</v>
+        <v>7.952631578947368</v>
       </c>
       <c r="G315" t="n">
-        <v>10.59</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_box_cross_ratio</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B316" s="1" t="inlineStr">
@@ -8353,19 +8353,19 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.2766512379873568</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="D316" t="n">
-        <v>0.2501791862384243</v>
+        <v>0.03104588394062078</v>
       </c>
       <c r="E316" t="n">
-        <v>0.2545869872483378</v>
+        <v>0.03186344238975818</v>
       </c>
       <c r="F316" t="n">
-        <v>0.2730884154267527</v>
+        <v>0.03104588394062078</v>
       </c>
       <c r="G316" t="n">
-        <v>-1.29</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="317">
@@ -8376,25 +8376,25 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.2914294128352456</v>
+        <v>0.04135714662030451</v>
       </c>
       <c r="D317" t="n">
-        <v>0.2859824589407455</v>
+        <v>0.0352773826458037</v>
       </c>
       <c r="E317" t="n">
-        <v>0.2651024660747931</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="F317" t="n">
-        <v>0.2571967732845959</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G317" t="n">
-        <v>-11.75</v>
+        <v>-36.37</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_pg</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B318" s="1" t="inlineStr">
@@ -8403,19 +8403,19 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>467.0817071524967</v>
+        <v>419.4097368421053</v>
       </c>
       <c r="D318" t="n">
-        <v>479.7142105263158</v>
+        <v>426.8917408906882</v>
       </c>
       <c r="E318" t="n">
-        <v>447.7385490753912</v>
+        <v>399.4644381223329</v>
       </c>
       <c r="F318" t="n">
-        <v>472.8644331983805</v>
+        <v>426.1030836707152</v>
       </c>
       <c r="G318" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="319">
@@ -8426,25 +8426,25 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>389.8613929719194</v>
+        <v>338.9738027501186</v>
       </c>
       <c r="D319" t="n">
-        <v>392.76951161688</v>
+        <v>345.3349928876244</v>
       </c>
       <c r="E319" t="n">
-        <v>422.6387387387387</v>
+        <v>372.2061640587956</v>
       </c>
       <c r="F319" t="n">
-        <v>426.0421052631579</v>
+        <v>374.8859649122808</v>
       </c>
       <c r="G319" t="n">
-        <v>9.279999999999999</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_successful_box_cross_ratio</t>
         </is>
       </c>
       <c r="B320" s="1" t="inlineStr">
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.4739935586709375</v>
+        <v>0.2766512379873568</v>
       </c>
       <c r="D320" t="n">
-        <v>0.4779079432821404</v>
+        <v>0.2501791862384243</v>
       </c>
       <c r="E320" t="n">
-        <v>0.4840015166367297</v>
+        <v>0.2545869872483378</v>
       </c>
       <c r="F320" t="n">
-        <v>0.4786300691810709</v>
+        <v>0.2730884154267527</v>
       </c>
       <c r="G320" t="n">
-        <v>0.98</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="321">
@@ -8476,25 +8476,25 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.426094708653722</v>
+        <v>0.2914294128352456</v>
       </c>
       <c r="D321" t="n">
-        <v>0.4293512262796032</v>
+        <v>0.2859824589407455</v>
       </c>
       <c r="E321" t="n">
-        <v>0.4392414592572608</v>
+        <v>0.2651024660747931</v>
       </c>
       <c r="F321" t="n">
-        <v>0.4563923044082158</v>
+        <v>0.2571967732845959</v>
       </c>
       <c r="G321" t="n">
-        <v>7.11</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_op_passes_pg</t>
         </is>
       </c>
       <c r="B322" s="1" t="inlineStr">
@@ -8503,19 +8503,19 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.8050454346307051</v>
+        <v>467.0817071524967</v>
       </c>
       <c r="D322" t="n">
-        <v>0.8018822021280114</v>
+        <v>479.7142105263158</v>
       </c>
       <c r="E322" t="n">
-        <v>0.8025181520115765</v>
+        <v>447.7385490753912</v>
       </c>
       <c r="F322" t="n">
-        <v>0.8124650327766366</v>
+        <v>472.8644331983805</v>
       </c>
       <c r="G322" t="n">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="323">
@@ -8526,25 +8526,25 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.7618280121882288</v>
+        <v>389.8613929719194</v>
       </c>
       <c r="D323" t="n">
-        <v>0.7726256546226381</v>
+        <v>392.76951161688</v>
       </c>
       <c r="E323" t="n">
-        <v>0.7851050322886171</v>
+        <v>422.6387387387387</v>
       </c>
       <c r="F323" t="n">
-        <v>0.7846504177943245</v>
+        <v>426.0421052631579</v>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B324" s="1" t="inlineStr">
@@ -8553,19 +8553,19 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.003962909027133518</v>
+        <v>0.4739935586709375</v>
       </c>
       <c r="D324" t="n">
-        <v>0.003724205389623976</v>
+        <v>0.4779079432821404</v>
       </c>
       <c r="E324" t="n">
-        <v>0.004387262087370712</v>
+        <v>0.4840015166367297</v>
       </c>
       <c r="F324" t="n">
-        <v>0.00392857856584772</v>
+        <v>0.4786300691810709</v>
       </c>
       <c r="G324" t="n">
-        <v>-0.87</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="325">
@@ -8576,25 +8576,25 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.005046842160315652</v>
+        <v>0.426094708653722</v>
       </c>
       <c r="D325" t="n">
-        <v>0.004167442068899712</v>
+        <v>0.4293512262796032</v>
       </c>
       <c r="E325" t="n">
-        <v>0.004368480338237914</v>
+        <v>0.4392414592572608</v>
       </c>
       <c r="F325" t="n">
-        <v>0.003754365828158627</v>
+        <v>0.4563923044082158</v>
       </c>
       <c r="G325" t="n">
-        <v>-25.61</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B326" s="1" t="inlineStr">
@@ -8603,19 +8603,19 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1.090101010101012</v>
+        <v>0.8050454346307051</v>
       </c>
       <c r="D326" t="n">
-        <v>1.14659090909091</v>
+        <v>0.8018822021280114</v>
       </c>
       <c r="E326" t="n">
-        <v>1.041333333333332</v>
+        <v>0.8025181520115765</v>
       </c>
       <c r="F326" t="n">
-        <v>1.098989898989898</v>
+        <v>0.8124650327766366</v>
       </c>
       <c r="G326" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="327">
@@ -8626,25 +8626,25 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1.080096108173987</v>
+        <v>0.7618280121882288</v>
       </c>
       <c r="D327" t="n">
-        <v>1.056138179559233</v>
+        <v>0.7726256546226381</v>
       </c>
       <c r="E327" t="n">
-        <v>1.096894985047159</v>
+        <v>0.7851050322886171</v>
       </c>
       <c r="F327" t="n">
-        <v>1.077258018727059</v>
+        <v>0.7846504177943245</v>
       </c>
       <c r="G327" t="n">
-        <v>-0.26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B328" s="1" t="inlineStr">
@@ -8653,19 +8653,19 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>12.83656545209177</v>
+        <v>1.090101010101012</v>
       </c>
       <c r="D328" t="n">
-        <v>12.17318488529015</v>
+        <v>1.14659090909091</v>
       </c>
       <c r="E328" t="n">
-        <v>12.38463726884779</v>
+        <v>1.041333333333332</v>
       </c>
       <c r="F328" t="n">
-        <v>12.73603238866397</v>
+        <v>1.098989898989898</v>
       </c>
       <c r="G328" t="n">
-        <v>-0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="329">
@@ -8676,25 +8676,25 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>10.07253305937517</v>
+        <v>1.080096108173987</v>
       </c>
       <c r="D329" t="n">
-        <v>10.41626363205311</v>
+        <v>1.056138179559233</v>
       </c>
       <c r="E329" t="n">
-        <v>10.6706021811285</v>
+        <v>1.096894985047159</v>
       </c>
       <c r="F329" t="n">
-        <v>11.0280701754386</v>
+        <v>1.077258018727059</v>
       </c>
       <c r="G329" t="n">
-        <v>9.49</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_pg</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B330" s="1" t="inlineStr">
@@ -8703,19 +8703,19 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>44.02840755735492</v>
+        <v>12.83656545209177</v>
       </c>
       <c r="D330" t="n">
-        <v>43.27894736842105</v>
+        <v>12.17318488529015</v>
       </c>
       <c r="E330" t="n">
-        <v>41.9950213371266</v>
+        <v>12.38463726884779</v>
       </c>
       <c r="F330" t="n">
-        <v>44.31450742240216</v>
+        <v>12.73603238866397</v>
       </c>
       <c r="G330" t="n">
-        <v>0.65</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="331">
@@ -8726,25 +8726,25 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>36.74922817554398</v>
+        <v>10.07253305937517</v>
       </c>
       <c r="D331" t="n">
-        <v>37.10820293978188</v>
+        <v>10.41626363205311</v>
       </c>
       <c r="E331" t="n">
-        <v>38.34011379800852</v>
+        <v>10.6706021811285</v>
       </c>
       <c r="F331" t="n">
-        <v>38.56315789473685</v>
+        <v>11.0280701754386</v>
       </c>
       <c r="G331" t="n">
-        <v>4.94</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>team_season_directness</t>
+          <t>team_season_deep_progressions_pg</t>
         </is>
       </c>
       <c r="B332" s="1" t="inlineStr">
@@ -8753,19 +8753,19 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.8730059202238657</v>
+        <v>44.02840755735492</v>
       </c>
       <c r="D332" t="n">
-        <v>0.8652773618911078</v>
+        <v>43.27894736842105</v>
       </c>
       <c r="E332" t="n">
-        <v>0.8458475734406443</v>
+        <v>41.9950213371266</v>
       </c>
       <c r="F332" t="n">
-        <v>0.8784830393248502</v>
+        <v>44.31450742240216</v>
       </c>
       <c r="G332" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="333">
@@ -8776,25 +8776,25 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.8678612041538561</v>
+        <v>36.74922817554398</v>
       </c>
       <c r="D333" t="n">
-        <v>0.8675129458985338</v>
+        <v>37.10820293978188</v>
       </c>
       <c r="E333" t="n">
-        <v>0.8694863804321671</v>
+        <v>38.34011379800852</v>
       </c>
       <c r="F333" t="n">
-        <v>0.8664310149881469</v>
+        <v>38.56315789473685</v>
       </c>
       <c r="G333" t="n">
-        <v>-0.16</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_pg</t>
+          <t>team_season_directness</t>
         </is>
       </c>
       <c r="B334" s="1" t="inlineStr">
@@ -8803,19 +8803,19 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>519.6012618083671</v>
+        <v>0.8729960451105739</v>
       </c>
       <c r="D334" t="n">
-        <v>530.609048582996</v>
+        <v>0.8652773618911078</v>
       </c>
       <c r="E334" t="n">
-        <v>496.872546230441</v>
+        <v>0.8458475734406443</v>
       </c>
       <c r="F334" t="n">
-        <v>522.7548650472334</v>
+        <v>0.8784830083744515</v>
       </c>
       <c r="G334" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="335">
@@ -8826,25 +8826,25 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>443.6987671882409</v>
+        <v>0.8678414887296337</v>
       </c>
       <c r="D335" t="n">
-        <v>446.0417733522997</v>
+        <v>0.8675129458985338</v>
       </c>
       <c r="E335" t="n">
-        <v>473.0310099573257</v>
+        <v>0.8694863804321671</v>
       </c>
       <c r="F335" t="n">
-        <v>476.0421052631579</v>
+        <v>0.866431036077535</v>
       </c>
       <c r="G335" t="n">
-        <v>7.29</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pg</t>
+          <t>team_season_passes_pg</t>
         </is>
       </c>
       <c r="B336" s="1" t="inlineStr">
@@ -8853,19 +8853,19 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1.893261715892737</v>
+        <v>519.6012618083671</v>
       </c>
       <c r="D336" t="n">
-        <v>1.819633297045664</v>
+        <v>530.609048582996</v>
       </c>
       <c r="E336" t="n">
-        <v>1.540582890246079</v>
+        <v>496.872546230441</v>
       </c>
       <c r="F336" t="n">
-        <v>1.885457756583266</v>
+        <v>522.7548650472334</v>
       </c>
       <c r="G336" t="n">
-        <v>-0.41</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="337">
@@ -8876,19 +8876,19 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1.394346478607782</v>
+        <v>443.6987671882409</v>
       </c>
       <c r="D337" t="n">
-        <v>1.497479018401717</v>
+        <v>446.0417733522997</v>
       </c>
       <c r="E337" t="n">
-        <v>1.483417671981885</v>
+        <v>473.0310099573257</v>
       </c>
       <c r="F337" t="n">
-        <v>1.519716562445095</v>
+        <v>476.0421052631579</v>
       </c>
       <c r="G337" t="n">
-        <v>8.99</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="338">
@@ -8926,7 +8926,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.0513095552685815</v>
+        <v>0.05142048150263585</v>
       </c>
       <c r="D339" t="n">
         <v>0.04712763291096028</v>
@@ -8938,7 +8938,7 @@
         <v>0.04964368610521183</v>
       </c>
       <c r="G339" t="n">
-        <v>-3.25</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="340">
